--- a/test_sample.xlsx
+++ b/test_sample.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="253">
   <si>
     <t>JENO</t>
   </si>
@@ -37,721 +37,739 @@
     <t>유형</t>
   </si>
   <si>
-    <t>201702222528</t>
-  </si>
-  <si>
-    <t>2017091023</t>
-  </si>
-  <si>
-    <t>201705231232</t>
-  </si>
-  <si>
-    <t>201705233017</t>
-  </si>
-  <si>
-    <t>20170125476</t>
-  </si>
-  <si>
-    <t>20170510149</t>
-  </si>
-  <si>
-    <t>201710201352</t>
-  </si>
-  <si>
-    <t>20170321443</t>
-  </si>
-  <si>
-    <t>201709212142</t>
-  </si>
-  <si>
-    <t>201711201793</t>
-  </si>
-  <si>
-    <t>20170921497</t>
-  </si>
-  <si>
-    <t>201701202193</t>
-  </si>
-  <si>
-    <t>20170307126</t>
-  </si>
-  <si>
-    <t>201706202302</t>
-  </si>
-  <si>
-    <t>20170523272</t>
-  </si>
-  <si>
-    <t>2017042744</t>
-  </si>
-  <si>
-    <t>201701202066</t>
-  </si>
-  <si>
-    <t>201707201585</t>
-  </si>
-  <si>
-    <t>20170720275</t>
-  </si>
-  <si>
-    <t>2017112515</t>
-  </si>
-  <si>
-    <t>20171130737</t>
-  </si>
-  <si>
-    <t>201708213126</t>
-  </si>
-  <si>
-    <t>201704242626</t>
-  </si>
-  <si>
-    <t>20170525222</t>
-  </si>
-  <si>
-    <t>2017101183</t>
-  </si>
-  <si>
-    <t>201706202444</t>
-  </si>
-  <si>
-    <t>201701201761</t>
-  </si>
-  <si>
-    <t>20170222563</t>
-  </si>
-  <si>
-    <t>20170825179</t>
-  </si>
-  <si>
-    <t>201704241454</t>
-  </si>
-  <si>
-    <t>201702222244</t>
-  </si>
-  <si>
-    <t>20170620940</t>
-  </si>
-  <si>
-    <t>20170807125</t>
-  </si>
-  <si>
-    <t>2017041390</t>
-  </si>
-  <si>
-    <t>201712201236</t>
-  </si>
-  <si>
-    <t>20170725383</t>
-  </si>
-  <si>
-    <t>20171218164</t>
-  </si>
-  <si>
-    <t>20170905192</t>
-  </si>
-  <si>
-    <t>201702221438</t>
-  </si>
-  <si>
-    <t>201712202687</t>
-  </si>
-  <si>
-    <t>201707202215</t>
-  </si>
-  <si>
-    <t>20170125481</t>
-  </si>
-  <si>
-    <t>20170222413</t>
-  </si>
-  <si>
-    <t>201701201508</t>
-  </si>
-  <si>
-    <t>20170720859</t>
-  </si>
-  <si>
-    <t>20170626371</t>
-  </si>
-  <si>
-    <t>201703212627</t>
-  </si>
-  <si>
-    <t>201712203107</t>
-  </si>
-  <si>
-    <t>201708213038</t>
-  </si>
-  <si>
-    <t>2017041437</t>
-  </si>
-  <si>
-    <t>201704242665</t>
-  </si>
-  <si>
-    <t>201712203059</t>
-  </si>
-  <si>
-    <t>201707201931</t>
-  </si>
-  <si>
-    <t>20170125520</t>
-  </si>
-  <si>
-    <t>2017061517</t>
-  </si>
-  <si>
-    <t>20171220202</t>
-  </si>
-  <si>
-    <t>20171020346</t>
-  </si>
-  <si>
-    <t>201703212182</t>
-  </si>
-  <si>
-    <t>20171120267</t>
-  </si>
-  <si>
-    <t>201702222092</t>
-  </si>
-  <si>
-    <t>201711201242</t>
-  </si>
-  <si>
-    <t>20170523197</t>
-  </si>
-  <si>
-    <t>201708211522</t>
-  </si>
-  <si>
-    <t>20170227331</t>
-  </si>
-  <si>
-    <t>20170831774</t>
-  </si>
-  <si>
-    <t>201702222707</t>
-  </si>
-  <si>
-    <t>20170525301</t>
-  </si>
-  <si>
-    <t>201710202755</t>
-  </si>
-  <si>
-    <t>20170725531</t>
-  </si>
-  <si>
-    <t>20171220780</t>
-  </si>
-  <si>
-    <t>201711201228</t>
-  </si>
-  <si>
-    <t>20170616158</t>
-  </si>
-  <si>
-    <t>2017061649</t>
-  </si>
-  <si>
-    <t>20170424140</t>
-  </si>
-  <si>
-    <t>20170216230</t>
-  </si>
-  <si>
-    <t>20171106130</t>
-  </si>
-  <si>
-    <t>20170516220</t>
-  </si>
-  <si>
-    <t>2017072647</t>
-  </si>
-  <si>
-    <t>2017012653</t>
-  </si>
-  <si>
-    <t>201701202439</t>
-  </si>
-  <si>
-    <t>201705232744</t>
-  </si>
-  <si>
-    <t>20170821741</t>
-  </si>
-  <si>
-    <t>20170424537</t>
-  </si>
-  <si>
-    <t>201701202840</t>
-  </si>
-  <si>
-    <t>201708212611</t>
-  </si>
-  <si>
-    <t>201712201898</t>
-  </si>
-  <si>
-    <t>201702221150</t>
-  </si>
-  <si>
-    <t>20170821599</t>
-  </si>
-  <si>
-    <t>20170906171</t>
-  </si>
-  <si>
-    <t>201702221769</t>
-  </si>
-  <si>
-    <t>201708211501</t>
-  </si>
-  <si>
-    <t>20170222132</t>
-  </si>
-  <si>
-    <t>20171218103</t>
-  </si>
-  <si>
-    <t>201709211955</t>
-  </si>
-  <si>
-    <t>201708211911</t>
-  </si>
-  <si>
-    <t>20170918127</t>
+    <t>20170620853</t>
+  </si>
+  <si>
+    <t>201705231798</t>
+  </si>
+  <si>
+    <t>2017081716</t>
+  </si>
+  <si>
+    <t>20170825231</t>
+  </si>
+  <si>
+    <t>201704241780</t>
+  </si>
+  <si>
+    <t>201701202314</t>
+  </si>
+  <si>
+    <t>20170116287</t>
+  </si>
+  <si>
+    <t>201705231695</t>
+  </si>
+  <si>
+    <t>201702221420</t>
+  </si>
+  <si>
+    <t>2017061695</t>
+  </si>
+  <si>
+    <t>201706201761</t>
+  </si>
+  <si>
+    <t>20170725267</t>
+  </si>
+  <si>
+    <t>201710201191</t>
+  </si>
+  <si>
+    <t>20170626373</t>
+  </si>
+  <si>
+    <t>20170125403</t>
+  </si>
+  <si>
+    <t>20171205157</t>
+  </si>
+  <si>
+    <t>20170921854</t>
+  </si>
+  <si>
+    <t>20170825571</t>
+  </si>
+  <si>
+    <t>20170321476</t>
+  </si>
+  <si>
+    <t>201707202370</t>
+  </si>
+  <si>
+    <t>2017010366</t>
+  </si>
+  <si>
+    <t>20170921393</t>
+  </si>
+  <si>
+    <t>201707201102</t>
+  </si>
+  <si>
+    <t>2017070762</t>
+  </si>
+  <si>
+    <t>201708211358</t>
+  </si>
+  <si>
+    <t>201705232086</t>
+  </si>
+  <si>
+    <t>2017071925</t>
+  </si>
+  <si>
+    <t>20170227193</t>
+  </si>
+  <si>
+    <t>201709211679</t>
+  </si>
+  <si>
+    <t>20170720250</t>
+  </si>
+  <si>
+    <t>201708212005</t>
+  </si>
+  <si>
+    <t>201712201561</t>
+  </si>
+  <si>
+    <t>20171020853</t>
+  </si>
+  <si>
+    <t>20171020997</t>
+  </si>
+  <si>
+    <t>20170731457</t>
+  </si>
+  <si>
+    <t>201703212937</t>
+  </si>
+  <si>
+    <t>20170918252</t>
+  </si>
+  <si>
+    <t>201710202129</t>
+  </si>
+  <si>
+    <t>20170424431</t>
+  </si>
+  <si>
+    <t>20171226610</t>
+  </si>
+  <si>
+    <t>201701202446</t>
+  </si>
+  <si>
+    <t>201709213017</t>
+  </si>
+  <si>
+    <t>20170525440</t>
+  </si>
+  <si>
+    <t>201705231493</t>
+  </si>
+  <si>
+    <t>20171218173</t>
+  </si>
+  <si>
+    <t>20170630988</t>
+  </si>
+  <si>
+    <t>201706201319</t>
+  </si>
+  <si>
+    <t>20170821924</t>
+  </si>
+  <si>
+    <t>20170626357</t>
+  </si>
+  <si>
+    <t>201704242880</t>
+  </si>
+  <si>
+    <t>201710201882</t>
+  </si>
+  <si>
+    <t>201704242983</t>
+  </si>
+  <si>
+    <t>20171127217</t>
+  </si>
+  <si>
+    <t>20170925307</t>
+  </si>
+  <si>
+    <t>201704241202</t>
+  </si>
+  <si>
+    <t>20171220407</t>
+  </si>
+  <si>
+    <t>201703212187</t>
+  </si>
+  <si>
+    <t>20170321445</t>
+  </si>
+  <si>
+    <t>2017092930</t>
+  </si>
+  <si>
+    <t>2017120185</t>
+  </si>
+  <si>
+    <t>201705232210</t>
+  </si>
+  <si>
+    <t>201703211011</t>
+  </si>
+  <si>
+    <t>201711202436</t>
+  </si>
+  <si>
+    <t>20170321811</t>
+  </si>
+  <si>
+    <t>20170116108</t>
+  </si>
+  <si>
+    <t>201708212605</t>
+  </si>
+  <si>
+    <t>20171231614</t>
+  </si>
+  <si>
+    <t>20170424221</t>
+  </si>
+  <si>
+    <t>201712202611</t>
+  </si>
+  <si>
+    <t>201712201019</t>
+  </si>
+  <si>
+    <t>20170921933</t>
+  </si>
+  <si>
+    <t>20170508139</t>
+  </si>
+  <si>
+    <t>2017071467</t>
+  </si>
+  <si>
+    <t>201708211366</t>
+  </si>
+  <si>
+    <t>20170807216</t>
+  </si>
+  <si>
+    <t>20170206202</t>
+  </si>
+  <si>
+    <t>201702221178</t>
+  </si>
+  <si>
+    <t>201710202418</t>
+  </si>
+  <si>
+    <t>201705232980</t>
+  </si>
+  <si>
+    <t>201711201524</t>
+  </si>
+  <si>
+    <t>201712201918</t>
+  </si>
+  <si>
+    <t>20170821463</t>
+  </si>
+  <si>
+    <t>2017111092</t>
+  </si>
+  <si>
+    <t>20171127274</t>
+  </si>
+  <si>
+    <t>20170523871</t>
+  </si>
+  <si>
+    <t>2017062030</t>
+  </si>
+  <si>
+    <t>20170216220</t>
+  </si>
+  <si>
+    <t>20170523362</t>
+  </si>
+  <si>
+    <t>20170717281</t>
+  </si>
+  <si>
+    <t>201712203117</t>
+  </si>
+  <si>
+    <t>20170131443</t>
+  </si>
+  <si>
+    <t>2017121075</t>
+  </si>
+  <si>
+    <t>201703212460</t>
+  </si>
+  <si>
+    <t>201702221944</t>
+  </si>
+  <si>
+    <t>201702221118</t>
+  </si>
+  <si>
+    <t>20171025505</t>
   </si>
   <si>
     <t>제품매출</t>
   </si>
   <si>
-    <t>82525</t>
-  </si>
-  <si>
-    <t>05169</t>
-  </si>
-  <si>
-    <t>11252</t>
-  </si>
-  <si>
-    <t>87845</t>
-  </si>
-  <si>
-    <t>89087</t>
-  </si>
-  <si>
-    <t>14848</t>
-  </si>
-  <si>
-    <t>01317</t>
+    <t>08139</t>
+  </si>
+  <si>
+    <t>13343</t>
+  </si>
+  <si>
+    <t>09624</t>
+  </si>
+  <si>
+    <t>05302</t>
+  </si>
+  <si>
+    <t>13295</t>
+  </si>
+  <si>
+    <t>81072</t>
+  </si>
+  <si>
+    <t>13886</t>
+  </si>
+  <si>
+    <t>12955</t>
+  </si>
+  <si>
+    <t>12052</t>
+  </si>
+  <si>
+    <t>11855</t>
+  </si>
+  <si>
+    <t>13004</t>
+  </si>
+  <si>
+    <t>09982</t>
+  </si>
+  <si>
+    <t>02366</t>
+  </si>
+  <si>
+    <t>13540</t>
+  </si>
+  <si>
+    <t>13949</t>
+  </si>
+  <si>
+    <t>14036</t>
+  </si>
+  <si>
+    <t>09802</t>
+  </si>
+  <si>
+    <t>14489</t>
+  </si>
+  <si>
+    <t>04018</t>
+  </si>
+  <si>
+    <t>81214</t>
+  </si>
+  <si>
+    <t>12001</t>
   </si>
   <si>
     <t>03647</t>
   </si>
   <si>
-    <t>15062</t>
-  </si>
-  <si>
-    <t>03340</t>
-  </si>
-  <si>
-    <t>04895</t>
-  </si>
-  <si>
-    <t>14515</t>
-  </si>
-  <si>
-    <t>12427</t>
-  </si>
-  <si>
-    <t>15083</t>
-  </si>
-  <si>
-    <t>01025</t>
-  </si>
-  <si>
-    <t>81940</t>
-  </si>
-  <si>
-    <t>14042</t>
-  </si>
-  <si>
-    <t>12422</t>
-  </si>
-  <si>
-    <t>00557</t>
-  </si>
-  <si>
-    <t>15288</t>
-  </si>
-  <si>
-    <t>14995</t>
-  </si>
-  <si>
-    <t>82756</t>
-  </si>
-  <si>
-    <t>83430</t>
-  </si>
-  <si>
-    <t>01270</t>
-  </si>
-  <si>
-    <t>12782</t>
-  </si>
-  <si>
-    <t>81435</t>
-  </si>
-  <si>
-    <t>12944</t>
-  </si>
-  <si>
-    <t>04440</t>
-  </si>
-  <si>
-    <t>14649</t>
-  </si>
-  <si>
-    <t>12204</t>
-  </si>
-  <si>
-    <t>80642</t>
-  </si>
-  <si>
-    <t>09230</t>
-  </si>
-  <si>
-    <t>12917</t>
-  </si>
-  <si>
-    <t>13111</t>
-  </si>
-  <si>
-    <t>15039</t>
-  </si>
-  <si>
-    <t>14076</t>
-  </si>
-  <si>
-    <t>13834</t>
-  </si>
-  <si>
-    <t>14391</t>
-  </si>
-  <si>
-    <t>12100</t>
-  </si>
-  <si>
-    <t>08934</t>
-  </si>
-  <si>
-    <t>14865</t>
-  </si>
-  <si>
-    <t>89097</t>
-  </si>
-  <si>
-    <t>02536</t>
-  </si>
-  <si>
-    <t>12177</t>
-  </si>
-  <si>
-    <t>08608</t>
-  </si>
-  <si>
-    <t>13486</t>
-  </si>
-  <si>
-    <t>83603</t>
-  </si>
-  <si>
-    <t>85777</t>
-  </si>
-  <si>
-    <t>88541</t>
-  </si>
-  <si>
-    <t>09652</t>
-  </si>
-  <si>
-    <t>83795</t>
-  </si>
-  <si>
-    <t>05130</t>
-  </si>
-  <si>
-    <t>13816</t>
-  </si>
-  <si>
-    <t>89214</t>
-  </si>
-  <si>
-    <t>11310</t>
-  </si>
-  <si>
-    <t>06802</t>
-  </si>
-  <si>
-    <t>09826</t>
-  </si>
-  <si>
-    <t>14863</t>
-  </si>
-  <si>
-    <t>14084</t>
-  </si>
-  <si>
-    <t>14223</t>
-  </si>
-  <si>
-    <t>00121</t>
-  </si>
-  <si>
-    <t>00159</t>
-  </si>
-  <si>
-    <t>12482</t>
-  </si>
-  <si>
-    <t>11545</t>
-  </si>
-  <si>
-    <t>13135</t>
-  </si>
-  <si>
-    <t>83861</t>
-  </si>
-  <si>
-    <t>10969</t>
-  </si>
-  <si>
-    <t>10057</t>
-  </si>
-  <si>
-    <t>13504</t>
-  </si>
-  <si>
-    <t>11117</t>
-  </si>
-  <si>
-    <t>82409</t>
-  </si>
-  <si>
-    <t>13379</t>
-  </si>
-  <si>
-    <t>03988</t>
-  </si>
-  <si>
-    <t>14826</t>
-  </si>
-  <si>
-    <t>89106</t>
-  </si>
-  <si>
-    <t>13994</t>
-  </si>
-  <si>
-    <t>14294</t>
-  </si>
-  <si>
-    <t>15187</t>
-  </si>
-  <si>
-    <t>13880</t>
-  </si>
-  <si>
-    <t>81958</t>
-  </si>
-  <si>
-    <t>84084</t>
-  </si>
-  <si>
-    <t>08034</t>
-  </si>
-  <si>
-    <t>04616</t>
-  </si>
-  <si>
-    <t>84497</t>
-  </si>
-  <si>
-    <t>83342</t>
-  </si>
-  <si>
-    <t>11857</t>
-  </si>
-  <si>
-    <t>10779</t>
-  </si>
-  <si>
-    <t>05789</t>
-  </si>
-  <si>
-    <t>14425</t>
-  </si>
-  <si>
-    <t>13058</t>
-  </si>
-  <si>
-    <t>12391</t>
-  </si>
-  <si>
-    <t>12528</t>
-  </si>
-  <si>
-    <t>14285</t>
-  </si>
-  <si>
-    <t>14004</t>
-  </si>
-  <si>
-    <t>13358</t>
+    <t>10664</t>
+  </si>
+  <si>
+    <t>09411</t>
+  </si>
+  <si>
+    <t>12125</t>
+  </si>
+  <si>
+    <t>14430</t>
+  </si>
+  <si>
+    <t>80070</t>
+  </si>
+  <si>
+    <t>89215</t>
+  </si>
+  <si>
+    <t>13244</t>
+  </si>
+  <si>
+    <t>00302</t>
+  </si>
+  <si>
+    <t>14336</t>
+  </si>
+  <si>
+    <t>13748</t>
+  </si>
+  <si>
+    <t>84064</t>
+  </si>
+  <si>
+    <t>11130</t>
+  </si>
+  <si>
+    <t>12679</t>
+  </si>
+  <si>
+    <t>87226</t>
+  </si>
+  <si>
+    <t>15266</t>
+  </si>
+  <si>
+    <t>11330</t>
+  </si>
+  <si>
+    <t>03296</t>
+  </si>
+  <si>
+    <t>04031</t>
+  </si>
+  <si>
+    <t>82028</t>
+  </si>
+  <si>
+    <t>88680</t>
+  </si>
+  <si>
+    <t>14704</t>
+  </si>
+  <si>
+    <t>12273</t>
+  </si>
+  <si>
+    <t>14083</t>
+  </si>
+  <si>
+    <t>01017</t>
+  </si>
+  <si>
+    <t>11353</t>
+  </si>
+  <si>
+    <t>09975</t>
+  </si>
+  <si>
+    <t>13223</t>
+  </si>
+  <si>
+    <t>85317</t>
+  </si>
+  <si>
+    <t>83422</t>
+  </si>
+  <si>
+    <t>87584</t>
+  </si>
+  <si>
+    <t>01008</t>
+  </si>
+  <si>
+    <t>09698</t>
+  </si>
+  <si>
+    <t>11120</t>
+  </si>
+  <si>
+    <t>03855</t>
+  </si>
+  <si>
+    <t>80583</t>
+  </si>
+  <si>
+    <t>03668</t>
+  </si>
+  <si>
+    <t>11829</t>
+  </si>
+  <si>
+    <t>07661</t>
+  </si>
+  <si>
+    <t>14909</t>
+  </si>
+  <si>
+    <t>10438</t>
+  </si>
+  <si>
+    <t>01841</t>
+  </si>
+  <si>
+    <t>08612</t>
+  </si>
+  <si>
+    <t>13229</t>
+  </si>
+  <si>
+    <t>83267</t>
+  </si>
+  <si>
+    <t>07525</t>
+  </si>
+  <si>
+    <t>00421</t>
+  </si>
+  <si>
+    <t>84838</t>
+  </si>
+  <si>
+    <t>05240</t>
+  </si>
+  <si>
+    <t>10313</t>
+  </si>
+  <si>
+    <t>11575</t>
+  </si>
+  <si>
+    <t>00863</t>
+  </si>
+  <si>
+    <t>12140</t>
+  </si>
+  <si>
+    <t>85896</t>
+  </si>
+  <si>
+    <t>10124</t>
+  </si>
+  <si>
+    <t>10854</t>
+  </si>
+  <si>
+    <t>84346</t>
+  </si>
+  <si>
+    <t>87334</t>
+  </si>
+  <si>
+    <t>14846</t>
+  </si>
+  <si>
+    <t>13251</t>
+  </si>
+  <si>
+    <t>04115</t>
+  </si>
+  <si>
+    <t>11727</t>
+  </si>
+  <si>
+    <t>09931</t>
+  </si>
+  <si>
+    <t>09136</t>
+  </si>
+  <si>
+    <t>89399</t>
+  </si>
+  <si>
+    <t>81938</t>
+  </si>
+  <si>
+    <t>02286</t>
+  </si>
+  <si>
+    <t>89080</t>
+  </si>
+  <si>
+    <t>88719</t>
+  </si>
+  <si>
+    <t>06779</t>
+  </si>
+  <si>
+    <t>12469</t>
+  </si>
+  <si>
+    <t>82380</t>
+  </si>
+  <si>
+    <t>13749</t>
+  </si>
+  <si>
+    <t>10692</t>
+  </si>
+  <si>
+    <t>89096</t>
+  </si>
+  <si>
+    <t>20170620</t>
+  </si>
+  <si>
+    <t>20170523</t>
+  </si>
+  <si>
+    <t>20170817</t>
+  </si>
+  <si>
+    <t>20170825</t>
+  </si>
+  <si>
+    <t>20170424</t>
+  </si>
+  <si>
+    <t>20170120</t>
+  </si>
+  <si>
+    <t>20170116</t>
   </si>
   <si>
     <t>20170222</t>
   </si>
   <si>
-    <t>20170910</t>
-  </si>
-  <si>
-    <t>20170523</t>
+    <t>20170616</t>
+  </si>
+  <si>
+    <t>20170725</t>
+  </si>
+  <si>
+    <t>20171020</t>
+  </si>
+  <si>
+    <t>20170626</t>
   </si>
   <si>
     <t>20170125</t>
   </si>
   <si>
-    <t>20170510</t>
-  </si>
-  <si>
-    <t>20171020</t>
+    <t>20171205</t>
+  </si>
+  <si>
+    <t>20170921</t>
   </si>
   <si>
     <t>20170321</t>
   </si>
   <si>
-    <t>20170921</t>
+    <t>20170720</t>
+  </si>
+  <si>
+    <t>20170103</t>
+  </si>
+  <si>
+    <t>20170707</t>
+  </si>
+  <si>
+    <t>20170821</t>
+  </si>
+  <si>
+    <t>20170719</t>
+  </si>
+  <si>
+    <t>20170227</t>
+  </si>
+  <si>
+    <t>20171220</t>
+  </si>
+  <si>
+    <t>20170731</t>
+  </si>
+  <si>
+    <t>20170918</t>
+  </si>
+  <si>
+    <t>20171226</t>
+  </si>
+  <si>
+    <t>20170525</t>
+  </si>
+  <si>
+    <t>20171218</t>
+  </si>
+  <si>
+    <t>20170630</t>
+  </si>
+  <si>
+    <t>20171127</t>
+  </si>
+  <si>
+    <t>20170925</t>
+  </si>
+  <si>
+    <t>20170929</t>
+  </si>
+  <si>
+    <t>20171201</t>
   </si>
   <si>
     <t>20171120</t>
   </si>
   <si>
-    <t>20170120</t>
-  </si>
-  <si>
-    <t>20170307</t>
-  </si>
-  <si>
-    <t>20170620</t>
-  </si>
-  <si>
-    <t>20170427</t>
-  </si>
-  <si>
-    <t>20170720</t>
-  </si>
-  <si>
-    <t>20171125</t>
-  </si>
-  <si>
-    <t>20171130</t>
-  </si>
-  <si>
-    <t>20170821</t>
-  </si>
-  <si>
-    <t>20170424</t>
-  </si>
-  <si>
-    <t>20170525</t>
-  </si>
-  <si>
-    <t>20171011</t>
-  </si>
-  <si>
-    <t>20170825</t>
+    <t>20171231</t>
+  </si>
+  <si>
+    <t>20170508</t>
+  </si>
+  <si>
+    <t>20170714</t>
   </si>
   <si>
     <t>20170807</t>
   </si>
   <si>
-    <t>20170413</t>
-  </si>
-  <si>
-    <t>20171220</t>
-  </si>
-  <si>
-    <t>20170725</t>
-  </si>
-  <si>
-    <t>20171218</t>
-  </si>
-  <si>
-    <t>20170905</t>
-  </si>
-  <si>
-    <t>20170626</t>
-  </si>
-  <si>
-    <t>20170414</t>
-  </si>
-  <si>
-    <t>20170615</t>
-  </si>
-  <si>
-    <t>20170227</t>
-  </si>
-  <si>
-    <t>20170831</t>
-  </si>
-  <si>
-    <t>20170616</t>
+    <t>20170206</t>
+  </si>
+  <si>
+    <t>20171110</t>
   </si>
   <si>
     <t>20170216</t>
   </si>
   <si>
-    <t>20171106</t>
-  </si>
-  <si>
-    <t>20170516</t>
-  </si>
-  <si>
-    <t>20170726</t>
-  </si>
-  <si>
-    <t>20170126</t>
-  </si>
-  <si>
-    <t>20170906</t>
-  </si>
-  <si>
-    <t>20170918</t>
+    <t>20170717</t>
+  </si>
+  <si>
+    <t>20170131</t>
+  </si>
+  <si>
+    <t>20171210</t>
+  </si>
+  <si>
+    <t>20171025</t>
   </si>
   <si>
     <t>0000001446</t>
   </si>
   <si>
+    <t>0000001183</t>
+  </si>
+  <si>
+    <t>0000001152</t>
+  </si>
+  <si>
+    <t>0000001389</t>
+  </si>
+  <si>
+    <t>0000001089</t>
+  </si>
+  <si>
+    <t>0000001483</t>
+  </si>
+  <si>
     <t>0000000517</t>
-  </si>
-  <si>
-    <t>0000001152</t>
-  </si>
-  <si>
-    <t>0000001389</t>
-  </si>
-  <si>
-    <t>0000001483</t>
-  </si>
-  <si>
-    <t>0000001089</t>
-  </si>
-  <si>
-    <t>0000001183</t>
   </si>
   <si>
     <t>매출</t>
@@ -1143,7 +1161,7 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
-        <v>8076</v>
+        <v>25271</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -1152,24 +1170,24 @@
         <v>103</v>
       </c>
       <c r="D2">
-        <v>50000</v>
+        <v>70000</v>
       </c>
       <c r="E2" t="s">
         <v>104</v>
       </c>
       <c r="F2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G2" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="H2" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1">
-        <v>38471</v>
+        <v>21532</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
@@ -1178,24 +1196,24 @@
         <v>103</v>
       </c>
       <c r="D3">
-        <v>1090909</v>
+        <v>80000</v>
       </c>
       <c r="E3" t="s">
         <v>105</v>
       </c>
       <c r="F3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G3" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="H3" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1">
-        <v>20966</v>
+        <v>34036</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -1204,24 +1222,24 @@
         <v>103</v>
       </c>
       <c r="D4">
-        <v>130000</v>
+        <v>70000</v>
       </c>
       <c r="E4" t="s">
         <v>106</v>
       </c>
       <c r="F4" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G4" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="H4" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1">
-        <v>22751</v>
+        <v>37450</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
@@ -1230,24 +1248,24 @@
         <v>103</v>
       </c>
       <c r="D5">
-        <v>170000</v>
+        <v>60000</v>
       </c>
       <c r="E5" t="s">
         <v>107</v>
       </c>
       <c r="F5" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="G5" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="H5" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1">
-        <v>4423</v>
+        <v>16798</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
@@ -1256,24 +1274,24 @@
         <v>103</v>
       </c>
       <c r="D6">
-        <v>60000</v>
+        <v>110000</v>
       </c>
       <c r="E6" t="s">
         <v>108</v>
       </c>
       <c r="F6" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="G6" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="H6" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1">
-        <v>19243</v>
+        <v>3117</v>
       </c>
       <c r="B7" t="s">
         <v>12</v>
@@ -1282,24 +1300,24 @@
         <v>103</v>
       </c>
       <c r="D7">
-        <v>400000</v>
+        <v>50000</v>
       </c>
       <c r="E7" t="s">
         <v>109</v>
       </c>
       <c r="F7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="G7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="H7" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1">
-        <v>45069</v>
+        <v>831</v>
       </c>
       <c r="B8" t="s">
         <v>13</v>
@@ -1308,24 +1326,24 @@
         <v>103</v>
       </c>
       <c r="D8">
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="E8" t="s">
         <v>110</v>
       </c>
       <c r="F8" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="G8" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="H8" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1">
-        <v>10735</v>
+        <v>21429</v>
       </c>
       <c r="B9" t="s">
         <v>14</v>
@@ -1334,24 +1352,24 @@
         <v>103</v>
       </c>
       <c r="D9">
-        <v>50000</v>
+        <v>80000</v>
       </c>
       <c r="E9" t="s">
         <v>111</v>
       </c>
       <c r="F9" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="G9" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="H9" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1">
-        <v>41072</v>
+        <v>6968</v>
       </c>
       <c r="B10" t="s">
         <v>15</v>
@@ -1360,24 +1378,24 @@
         <v>103</v>
       </c>
       <c r="D10">
-        <v>90000</v>
+        <v>80000</v>
       </c>
       <c r="E10" t="s">
         <v>112</v>
       </c>
       <c r="F10" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G10" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="H10" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1">
-        <v>50362</v>
+        <v>24263</v>
       </c>
       <c r="B11" t="s">
         <v>16</v>
@@ -1386,24 +1404,24 @@
         <v>103</v>
       </c>
       <c r="D11">
-        <v>50000</v>
+        <v>8000</v>
       </c>
       <c r="E11" t="s">
         <v>113</v>
       </c>
       <c r="F11" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G11" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="H11" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1">
-        <v>39427</v>
+        <v>26179</v>
       </c>
       <c r="B12" t="s">
         <v>17</v>
@@ -1412,24 +1430,24 @@
         <v>103</v>
       </c>
       <c r="D12">
-        <v>90000</v>
+        <v>50000</v>
       </c>
       <c r="E12" t="s">
         <v>114</v>
       </c>
       <c r="F12" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="G12" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="H12" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1">
-        <v>2996</v>
+        <v>32690</v>
       </c>
       <c r="B13" t="s">
         <v>18</v>
@@ -1438,24 +1456,24 @@
         <v>103</v>
       </c>
       <c r="D13">
-        <v>70000</v>
+        <v>40000</v>
       </c>
       <c r="E13" t="s">
         <v>115</v>
       </c>
       <c r="F13" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="G13" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="H13" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1">
-        <v>9648</v>
+        <v>44908</v>
       </c>
       <c r="B14" t="s">
         <v>19</v>
@@ -1464,24 +1482,24 @@
         <v>103</v>
       </c>
       <c r="D14">
-        <v>35500</v>
+        <v>50000</v>
       </c>
       <c r="E14" t="s">
         <v>116</v>
       </c>
       <c r="F14" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G14" t="s">
-        <v>239</v>
+        <v>250</v>
       </c>
       <c r="H14" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1">
-        <v>26720</v>
+        <v>28019</v>
       </c>
       <c r="B15" t="s">
         <v>20</v>
@@ -1490,24 +1508,24 @@
         <v>103</v>
       </c>
       <c r="D15">
-        <v>200000</v>
+        <v>20000</v>
       </c>
       <c r="E15" t="s">
         <v>117</v>
       </c>
       <c r="F15" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="G15" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="H15" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1">
-        <v>20006</v>
+        <v>4350</v>
       </c>
       <c r="B16" t="s">
         <v>21</v>
@@ -1516,24 +1534,24 @@
         <v>103</v>
       </c>
       <c r="D16">
-        <v>70000</v>
+        <v>20000</v>
       </c>
       <c r="E16" t="s">
         <v>118</v>
       </c>
       <c r="F16" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="G16" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="H16" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="1">
-        <v>18700</v>
+        <v>52680</v>
       </c>
       <c r="B17" t="s">
         <v>22</v>
@@ -1542,24 +1560,24 @@
         <v>103</v>
       </c>
       <c r="D17">
-        <v>60000</v>
+        <v>30000</v>
       </c>
       <c r="E17" t="s">
         <v>119</v>
       </c>
       <c r="F17" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="G17" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="H17" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="1">
-        <v>2869</v>
+        <v>39784</v>
       </c>
       <c r="B18" t="s">
         <v>23</v>
@@ -1568,24 +1586,24 @@
         <v>103</v>
       </c>
       <c r="D18">
-        <v>80000</v>
+        <v>59090</v>
       </c>
       <c r="E18" t="s">
         <v>120</v>
       </c>
       <c r="F18" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="G18" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="H18" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="1">
-        <v>30828</v>
+        <v>37779</v>
       </c>
       <c r="B19" t="s">
         <v>24</v>
@@ -1594,24 +1612,24 @@
         <v>103</v>
       </c>
       <c r="D19">
-        <v>50000</v>
+        <v>8900</v>
       </c>
       <c r="E19" t="s">
         <v>121</v>
       </c>
       <c r="F19" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="G19" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="H19" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="1">
-        <v>29518</v>
+        <v>10768</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
@@ -1620,24 +1638,24 @@
         <v>103</v>
       </c>
       <c r="D20">
-        <v>50000</v>
+        <v>60000</v>
       </c>
       <c r="E20" t="s">
         <v>122</v>
       </c>
       <c r="F20" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="G20" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="H20" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="1">
-        <v>51800</v>
+        <v>31613</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
@@ -1646,24 +1664,24 @@
         <v>103</v>
       </c>
       <c r="D21">
-        <v>100000</v>
+        <v>50000</v>
       </c>
       <c r="E21" t="s">
         <v>123</v>
       </c>
       <c r="F21" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="G21" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="H21" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="1">
-        <v>52470</v>
+        <v>54</v>
       </c>
       <c r="B22" t="s">
         <v>27</v>
@@ -1672,24 +1690,24 @@
         <v>103</v>
       </c>
       <c r="D22">
-        <v>60000</v>
+        <v>2181818</v>
       </c>
       <c r="E22" t="s">
         <v>124</v>
       </c>
       <c r="F22" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="G22" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="H22" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="1">
-        <v>37208</v>
+        <v>39323</v>
       </c>
       <c r="B23" t="s">
         <v>28</v>
@@ -1698,24 +1716,24 @@
         <v>103</v>
       </c>
       <c r="D23">
-        <v>30000</v>
+        <v>50000</v>
       </c>
       <c r="E23" t="s">
         <v>125</v>
       </c>
       <c r="F23" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G23" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="H23" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="1">
-        <v>17644</v>
+        <v>30345</v>
       </c>
       <c r="B24" t="s">
         <v>29</v>
@@ -1724,7 +1742,7 @@
         <v>103</v>
       </c>
       <c r="D24">
-        <v>60000</v>
+        <v>90000</v>
       </c>
       <c r="E24" t="s">
         <v>126</v>
@@ -1733,15 +1751,15 @@
         <v>216</v>
       </c>
       <c r="G24" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="H24" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="1">
-        <v>23072</v>
+        <v>28781</v>
       </c>
       <c r="B25" t="s">
         <v>30</v>
@@ -1750,24 +1768,24 @@
         <v>103</v>
       </c>
       <c r="D25">
-        <v>100000</v>
+        <v>400000</v>
       </c>
       <c r="E25" t="s">
         <v>127</v>
       </c>
       <c r="F25" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G25" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="H25" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="1">
-        <v>43298</v>
+        <v>35440</v>
       </c>
       <c r="B26" t="s">
         <v>31</v>
@@ -1776,24 +1794,24 @@
         <v>103</v>
       </c>
       <c r="D26">
-        <v>60000</v>
+        <v>50000</v>
       </c>
       <c r="E26" t="s">
         <v>128</v>
       </c>
       <c r="F26" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="G26" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="H26" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="1">
-        <v>26862</v>
+        <v>21820</v>
       </c>
       <c r="B27" t="s">
         <v>32</v>
@@ -1808,18 +1826,18 @@
         <v>129</v>
       </c>
       <c r="F27" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="G27" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="H27" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="1">
-        <v>2564</v>
+        <v>29266</v>
       </c>
       <c r="B28" t="s">
         <v>33</v>
@@ -1828,24 +1846,24 @@
         <v>103</v>
       </c>
       <c r="D28">
-        <v>100000</v>
+        <v>2231092</v>
       </c>
       <c r="E28" t="s">
         <v>130</v>
       </c>
       <c r="F28" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="G28" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="H28" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="1">
-        <v>6111</v>
+        <v>8889</v>
       </c>
       <c r="B29" t="s">
         <v>34</v>
@@ -1854,24 +1872,24 @@
         <v>103</v>
       </c>
       <c r="D29">
-        <v>50000</v>
+        <v>40000</v>
       </c>
       <c r="E29" t="s">
         <v>131</v>
       </c>
       <c r="F29" t="s">
-        <v>199</v>
+        <v>221</v>
       </c>
       <c r="G29" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="H29" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="1">
-        <v>37401</v>
+        <v>40609</v>
       </c>
       <c r="B30" t="s">
         <v>35</v>
@@ -1880,24 +1898,24 @@
         <v>103</v>
       </c>
       <c r="D30">
-        <v>6000</v>
+        <v>80000</v>
       </c>
       <c r="E30" t="s">
         <v>132</v>
       </c>
       <c r="F30" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="G30" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="H30" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="1">
-        <v>16472</v>
+        <v>29493</v>
       </c>
       <c r="B31" t="s">
         <v>36</v>
@@ -1906,7 +1924,7 @@
         <v>103</v>
       </c>
       <c r="D31">
-        <v>70000</v>
+        <v>50000</v>
       </c>
       <c r="E31" t="s">
         <v>133</v>
@@ -1915,15 +1933,15 @@
         <v>216</v>
       </c>
       <c r="G31" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="H31" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="1">
-        <v>7792</v>
+        <v>36087</v>
       </c>
       <c r="B32" t="s">
         <v>37</v>
@@ -1932,24 +1950,24 @@
         <v>103</v>
       </c>
       <c r="D32">
-        <v>50000</v>
+        <v>67000</v>
       </c>
       <c r="E32" t="s">
         <v>134</v>
       </c>
       <c r="F32" t="s">
-        <v>199</v>
+        <v>219</v>
       </c>
       <c r="G32" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="H32" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="1">
-        <v>25358</v>
+        <v>55028</v>
       </c>
       <c r="B33" t="s">
         <v>38</v>
@@ -1958,24 +1976,24 @@
         <v>103</v>
       </c>
       <c r="D33">
-        <v>227272</v>
+        <v>90000</v>
       </c>
       <c r="E33" t="s">
         <v>135</v>
       </c>
       <c r="F33" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="G33" t="s">
-        <v>239</v>
+        <v>250</v>
       </c>
       <c r="H33" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="1">
-        <v>33502</v>
+        <v>44570</v>
       </c>
       <c r="B34" t="s">
         <v>39</v>
@@ -1984,24 +2002,24 @@
         <v>103</v>
       </c>
       <c r="D34">
-        <v>60000</v>
+        <v>70000</v>
       </c>
       <c r="E34" t="s">
         <v>136</v>
       </c>
       <c r="F34" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="G34" t="s">
-        <v>239</v>
+        <v>250</v>
       </c>
       <c r="H34" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="1">
-        <v>14755</v>
+        <v>44714</v>
       </c>
       <c r="B35" t="s">
         <v>40</v>
@@ -2016,18 +2034,18 @@
         <v>137</v>
       </c>
       <c r="F35" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="G35" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="H35" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="1">
-        <v>54703</v>
+        <v>33061</v>
       </c>
       <c r="B36" t="s">
         <v>41</v>
@@ -2036,24 +2054,24 @@
         <v>103</v>
       </c>
       <c r="D36">
-        <v>80000</v>
+        <v>110000</v>
       </c>
       <c r="E36" t="s">
         <v>138</v>
       </c>
       <c r="F36" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="G36" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="H36" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="1">
-        <v>32806</v>
+        <v>13229</v>
       </c>
       <c r="B37" t="s">
         <v>42</v>
@@ -2062,24 +2080,24 @@
         <v>103</v>
       </c>
       <c r="D37">
-        <v>40000</v>
+        <v>50000</v>
       </c>
       <c r="E37" t="s">
         <v>139</v>
       </c>
       <c r="F37" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="G37" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="H37" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="1">
-        <v>53390</v>
+        <v>38908</v>
       </c>
       <c r="B38" t="s">
         <v>43</v>
@@ -2097,15 +2115,15 @@
         <v>224</v>
       </c>
       <c r="G38" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="H38" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="1">
-        <v>38171</v>
+        <v>45846</v>
       </c>
       <c r="B39" t="s">
         <v>44</v>
@@ -2114,24 +2132,24 @@
         <v>103</v>
       </c>
       <c r="D39">
-        <v>30072</v>
+        <v>50000</v>
       </c>
       <c r="E39" t="s">
         <v>141</v>
       </c>
       <c r="F39" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="G39" t="s">
-        <v>239</v>
+        <v>250</v>
       </c>
       <c r="H39" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="1">
-        <v>6986</v>
+        <v>15450</v>
       </c>
       <c r="B40" t="s">
         <v>45</v>
@@ -2140,24 +2158,24 @@
         <v>103</v>
       </c>
       <c r="D40">
-        <v>60000</v>
+        <v>50000</v>
       </c>
       <c r="E40" t="s">
         <v>142</v>
       </c>
       <c r="F40" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="G40" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="H40" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="1">
-        <v>56154</v>
+        <v>57224</v>
       </c>
       <c r="B41" t="s">
         <v>46</v>
@@ -2166,24 +2184,24 @@
         <v>103</v>
       </c>
       <c r="D41">
-        <v>400000</v>
+        <v>49308648</v>
       </c>
       <c r="E41" t="s">
         <v>143</v>
       </c>
       <c r="F41" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="G41" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="H41" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="1">
-        <v>31458</v>
+        <v>3249</v>
       </c>
       <c r="B42" t="s">
         <v>47</v>
@@ -2192,24 +2210,24 @@
         <v>103</v>
       </c>
       <c r="D42">
-        <v>80000</v>
+        <v>70000</v>
       </c>
       <c r="E42" t="s">
         <v>144</v>
       </c>
       <c r="F42" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="G42" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="H42" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="1">
-        <v>4428</v>
+        <v>41947</v>
       </c>
       <c r="B43" t="s">
         <v>48</v>
@@ -2218,24 +2236,24 @@
         <v>103</v>
       </c>
       <c r="D43">
-        <v>80000</v>
+        <v>50000</v>
       </c>
       <c r="E43" t="s">
         <v>145</v>
       </c>
       <c r="F43" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="G43" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="H43" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="1">
-        <v>5961</v>
+        <v>23290</v>
       </c>
       <c r="B44" t="s">
         <v>49</v>
@@ -2244,24 +2262,24 @@
         <v>103</v>
       </c>
       <c r="D44">
-        <v>90000</v>
+        <v>60000</v>
       </c>
       <c r="E44" t="s">
         <v>146</v>
       </c>
       <c r="F44" t="s">
-        <v>199</v>
+        <v>226</v>
       </c>
       <c r="G44" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="H44" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="1">
-        <v>2311</v>
+        <v>21227</v>
       </c>
       <c r="B45" t="s">
         <v>50</v>
@@ -2270,24 +2288,24 @@
         <v>103</v>
       </c>
       <c r="D45">
-        <v>40000</v>
+        <v>70000</v>
       </c>
       <c r="E45" t="s">
         <v>147</v>
       </c>
       <c r="F45" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="G45" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="H45" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="1">
-        <v>30102</v>
+        <v>53399</v>
       </c>
       <c r="B46" t="s">
         <v>51</v>
@@ -2302,18 +2320,18 @@
         <v>148</v>
       </c>
       <c r="F46" t="s">
-        <v>212</v>
+        <v>227</v>
       </c>
       <c r="G46" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="H46" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="1">
-        <v>28017</v>
+        <v>28363</v>
       </c>
       <c r="B47" t="s">
         <v>52</v>
@@ -2322,24 +2340,24 @@
         <v>103</v>
       </c>
       <c r="D47">
-        <v>80000</v>
+        <v>500000</v>
       </c>
       <c r="E47" t="s">
         <v>149</v>
       </c>
       <c r="F47" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="G47" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="H47" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="1">
-        <v>12919</v>
+        <v>25737</v>
       </c>
       <c r="B48" t="s">
         <v>53</v>
@@ -2348,24 +2366,24 @@
         <v>103</v>
       </c>
       <c r="D48">
-        <v>50000</v>
+        <v>90000</v>
       </c>
       <c r="E48" t="s">
         <v>150</v>
       </c>
       <c r="F48" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="G48" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="H48" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="1">
-        <v>56574</v>
+        <v>35006</v>
       </c>
       <c r="B49" t="s">
         <v>54</v>
@@ -2380,18 +2398,18 @@
         <v>151</v>
       </c>
       <c r="F49" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G49" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="H49" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="1">
-        <v>37120</v>
+        <v>28003</v>
       </c>
       <c r="B50" t="s">
         <v>55</v>
@@ -2400,24 +2418,24 @@
         <v>103</v>
       </c>
       <c r="D50">
-        <v>40000</v>
+        <v>30000</v>
       </c>
       <c r="E50" t="s">
         <v>152</v>
       </c>
       <c r="F50" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="G50" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="H50" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="1">
-        <v>14923</v>
+        <v>17898</v>
       </c>
       <c r="B51" t="s">
         <v>56</v>
@@ -2426,24 +2444,24 @@
         <v>103</v>
       </c>
       <c r="D51">
-        <v>150000</v>
+        <v>50000</v>
       </c>
       <c r="E51" t="s">
         <v>153</v>
       </c>
       <c r="F51" t="s">
-        <v>227</v>
+        <v>204</v>
       </c>
       <c r="G51" t="s">
         <v>245</v>
       </c>
       <c r="H51" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="1">
-        <v>17683</v>
+        <v>45599</v>
       </c>
       <c r="B52" t="s">
         <v>57</v>
@@ -2452,24 +2470,24 @@
         <v>103</v>
       </c>
       <c r="D52">
-        <v>60000</v>
+        <v>90000</v>
       </c>
       <c r="E52" t="s">
         <v>154</v>
       </c>
       <c r="F52" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="G52" t="s">
-        <v>239</v>
+        <v>250</v>
       </c>
       <c r="H52" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="1">
-        <v>56526</v>
+        <v>18001</v>
       </c>
       <c r="B53" t="s">
         <v>58</v>
@@ -2478,24 +2496,24 @@
         <v>103</v>
       </c>
       <c r="D53">
-        <v>100000</v>
+        <v>50000</v>
       </c>
       <c r="E53" t="s">
         <v>155</v>
       </c>
       <c r="F53" t="s">
-        <v>222</v>
+        <v>204</v>
       </c>
       <c r="G53" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="H53" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="1">
-        <v>31174</v>
+        <v>51978</v>
       </c>
       <c r="B54" t="s">
         <v>59</v>
@@ -2504,24 +2522,24 @@
         <v>103</v>
       </c>
       <c r="D54">
-        <v>80000</v>
+        <v>109091</v>
       </c>
       <c r="E54" t="s">
         <v>156</v>
       </c>
       <c r="F54" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="G54" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="H54" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="1">
-        <v>4467</v>
+        <v>42327</v>
       </c>
       <c r="B55" t="s">
         <v>60</v>
@@ -2530,24 +2548,24 @@
         <v>103</v>
       </c>
       <c r="D55">
-        <v>60000</v>
+        <v>40000</v>
       </c>
       <c r="E55" t="s">
         <v>157</v>
       </c>
       <c r="F55" t="s">
-        <v>202</v>
+        <v>230</v>
       </c>
       <c r="G55" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="H55" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
     </row>
     <row r="56" spans="1:8">
       <c r="A56" s="1">
-        <v>24162</v>
+        <v>16220</v>
       </c>
       <c r="B56" t="s">
         <v>61</v>
@@ -2556,24 +2574,24 @@
         <v>103</v>
       </c>
       <c r="D56">
-        <v>170000</v>
+        <v>50000</v>
       </c>
       <c r="E56" t="s">
         <v>158</v>
       </c>
       <c r="F56" t="s">
-        <v>228</v>
+        <v>204</v>
       </c>
       <c r="G56" t="s">
         <v>245</v>
       </c>
       <c r="H56" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="1">
-        <v>53670</v>
+        <v>53874</v>
       </c>
       <c r="B57" t="s">
         <v>62</v>
@@ -2582,7 +2600,7 @@
         <v>103</v>
       </c>
       <c r="D57">
-        <v>1300000</v>
+        <v>50000</v>
       </c>
       <c r="E57" t="s">
         <v>159</v>
@@ -2591,15 +2609,15 @@
         <v>222</v>
       </c>
       <c r="G57" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="H57" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="1">
-        <v>44063</v>
+        <v>12479</v>
       </c>
       <c r="B58" t="s">
         <v>63</v>
@@ -2608,24 +2626,24 @@
         <v>103</v>
       </c>
       <c r="D58">
-        <v>70000</v>
+        <v>110000</v>
       </c>
       <c r="E58" t="s">
         <v>160</v>
       </c>
       <c r="F58" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="G58" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="H58" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="1">
-        <v>12474</v>
+        <v>10737</v>
       </c>
       <c r="B59" t="s">
         <v>64</v>
@@ -2634,24 +2652,24 @@
         <v>103</v>
       </c>
       <c r="D59">
-        <v>80000</v>
+        <v>90000</v>
       </c>
       <c r="E59" t="s">
         <v>161</v>
       </c>
       <c r="F59" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="G59" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="H59" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="1">
-        <v>48836</v>
+        <v>42686</v>
       </c>
       <c r="B60" t="s">
         <v>65</v>
@@ -2660,24 +2678,24 @@
         <v>103</v>
       </c>
       <c r="D60">
-        <v>130000</v>
+        <v>230000</v>
       </c>
       <c r="E60" t="s">
         <v>162</v>
       </c>
       <c r="F60" t="s">
-        <v>207</v>
+        <v>231</v>
       </c>
       <c r="G60" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="H60" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
     </row>
     <row r="61" spans="1:8">
       <c r="A61" s="1">
-        <v>7640</v>
+        <v>52555</v>
       </c>
       <c r="B61" t="s">
         <v>66</v>
@@ -2686,24 +2704,24 @@
         <v>103</v>
       </c>
       <c r="D61">
-        <v>80000</v>
+        <v>900000</v>
       </c>
       <c r="E61" t="s">
         <v>163</v>
       </c>
       <c r="F61" t="s">
-        <v>199</v>
+        <v>232</v>
       </c>
       <c r="G61" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="H61" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="1">
-        <v>49811</v>
+        <v>21944</v>
       </c>
       <c r="B62" t="s">
         <v>67</v>
@@ -2712,24 +2730,24 @@
         <v>103</v>
       </c>
       <c r="D62">
-        <v>50000</v>
+        <v>140000</v>
       </c>
       <c r="E62" t="s">
         <v>164</v>
       </c>
       <c r="F62" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="G62" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="H62" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
     </row>
     <row r="63" spans="1:8">
       <c r="A63" s="1">
-        <v>19931</v>
+        <v>11303</v>
       </c>
       <c r="B63" t="s">
         <v>68</v>
@@ -2738,24 +2756,24 @@
         <v>103</v>
       </c>
       <c r="D63">
-        <v>90000</v>
+        <v>50000</v>
       </c>
       <c r="E63" t="s">
         <v>165</v>
       </c>
       <c r="F63" t="s">
-        <v>201</v>
+        <v>215</v>
       </c>
       <c r="G63" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="H63" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
     </row>
     <row r="64" spans="1:8">
       <c r="A64" s="1">
-        <v>35604</v>
+        <v>51005</v>
       </c>
       <c r="B64" t="s">
         <v>69</v>
@@ -2764,24 +2782,24 @@
         <v>103</v>
       </c>
       <c r="D64">
-        <v>140000</v>
+        <v>50000</v>
       </c>
       <c r="E64" t="s">
         <v>166</v>
       </c>
       <c r="F64" t="s">
-        <v>215</v>
+        <v>233</v>
       </c>
       <c r="G64" t="s">
-        <v>239</v>
+        <v>250</v>
       </c>
       <c r="H64" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
     </row>
     <row r="65" spans="1:8">
       <c r="A65" s="1">
-        <v>9016</v>
+        <v>11103</v>
       </c>
       <c r="B65" t="s">
         <v>70</v>
@@ -2790,24 +2808,24 @@
         <v>103</v>
       </c>
       <c r="D65">
-        <v>90000</v>
+        <v>80000</v>
       </c>
       <c r="E65" t="s">
         <v>167</v>
       </c>
       <c r="F65" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="G65" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="H65" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
     </row>
     <row r="66" spans="1:8">
       <c r="A66" s="1">
-        <v>37920</v>
+        <v>706</v>
       </c>
       <c r="B66" t="s">
         <v>71</v>
@@ -2816,24 +2834,24 @@
         <v>103</v>
       </c>
       <c r="D66">
-        <v>60000</v>
+        <v>70000</v>
       </c>
       <c r="E66" t="s">
         <v>168</v>
       </c>
       <c r="F66" t="s">
-        <v>230</v>
+        <v>206</v>
       </c>
       <c r="G66" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="H66" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
     </row>
     <row r="67" spans="1:8">
       <c r="A67" s="1">
-        <v>8255</v>
+        <v>36687</v>
       </c>
       <c r="B67" t="s">
         <v>72</v>
@@ -2842,24 +2860,24 @@
         <v>103</v>
       </c>
       <c r="D67">
-        <v>50000</v>
+        <v>110000</v>
       </c>
       <c r="E67" t="s">
         <v>169</v>
       </c>
       <c r="F67" t="s">
-        <v>199</v>
+        <v>219</v>
       </c>
       <c r="G67" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="H67" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
     </row>
     <row r="68" spans="1:8">
       <c r="A68" s="1">
-        <v>23151</v>
+        <v>57383</v>
       </c>
       <c r="B68" t="s">
         <v>73</v>
@@ -2868,24 +2886,24 @@
         <v>103</v>
       </c>
       <c r="D68">
-        <v>70000</v>
+        <v>545455</v>
       </c>
       <c r="E68" t="s">
         <v>170</v>
       </c>
       <c r="F68" t="s">
-        <v>217</v>
+        <v>234</v>
       </c>
       <c r="G68" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="H68" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="1">
-        <v>46472</v>
+        <v>15240</v>
       </c>
       <c r="B69" t="s">
         <v>74</v>
@@ -2894,7 +2912,7 @@
         <v>103</v>
       </c>
       <c r="D69">
-        <v>270000</v>
+        <v>50000</v>
       </c>
       <c r="E69" t="s">
         <v>171</v>
@@ -2903,15 +2921,15 @@
         <v>204</v>
       </c>
       <c r="G69" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="H69" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
     </row>
     <row r="70" spans="1:8">
       <c r="A70" s="1">
-        <v>32953</v>
+        <v>56078</v>
       </c>
       <c r="B70" t="s">
         <v>75</v>
@@ -2920,24 +2938,24 @@
         <v>103</v>
       </c>
       <c r="D70">
-        <v>60000</v>
+        <v>50000</v>
       </c>
       <c r="E70" t="s">
         <v>172</v>
       </c>
       <c r="F70" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G70" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="H70" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
     </row>
     <row r="71" spans="1:8">
       <c r="A71" s="1">
-        <v>54247</v>
+        <v>54486</v>
       </c>
       <c r="B71" t="s">
         <v>76</v>
@@ -2946,7 +2964,7 @@
         <v>103</v>
       </c>
       <c r="D71">
-        <v>130000</v>
+        <v>50000</v>
       </c>
       <c r="E71" t="s">
         <v>173</v>
@@ -2955,15 +2973,15 @@
         <v>222</v>
       </c>
       <c r="G71" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="H71" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
     </row>
     <row r="72" spans="1:8">
       <c r="A72" s="1">
-        <v>49797</v>
+        <v>39863</v>
       </c>
       <c r="B72" t="s">
         <v>77</v>
@@ -2978,18 +2996,18 @@
         <v>174</v>
       </c>
       <c r="F72" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="G72" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="H72" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
     </row>
     <row r="73" spans="1:8">
       <c r="A73" s="1">
-        <v>24326</v>
+        <v>19100</v>
       </c>
       <c r="B73" t="s">
         <v>78</v>
@@ -2998,24 +3016,24 @@
         <v>103</v>
       </c>
       <c r="D73">
-        <v>5000</v>
+        <v>172727</v>
       </c>
       <c r="E73" t="s">
         <v>175</v>
       </c>
       <c r="F73" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="G73" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H73" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
     </row>
     <row r="74" spans="1:8">
       <c r="A74" s="1">
-        <v>24217</v>
+        <v>28981</v>
       </c>
       <c r="B74" t="s">
         <v>79</v>
@@ -3024,24 +3042,24 @@
         <v>103</v>
       </c>
       <c r="D74">
-        <v>20000</v>
+        <v>150000</v>
       </c>
       <c r="E74" t="s">
         <v>176</v>
       </c>
       <c r="F74" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="G74" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="H74" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
     </row>
     <row r="75" spans="1:8">
       <c r="A75" s="1">
-        <v>15172</v>
+        <v>35448</v>
       </c>
       <c r="B75" t="s">
         <v>80</v>
@@ -3050,24 +3068,24 @@
         <v>103</v>
       </c>
       <c r="D75">
-        <v>60000</v>
+        <v>140000</v>
       </c>
       <c r="E75" t="s">
         <v>177</v>
       </c>
       <c r="F75" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="G75" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="H75" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
     </row>
     <row r="76" spans="1:8">
       <c r="A76" s="1">
-        <v>5516</v>
+        <v>33593</v>
       </c>
       <c r="B76" t="s">
         <v>81</v>
@@ -3076,24 +3094,24 @@
         <v>103</v>
       </c>
       <c r="D76">
-        <v>5000</v>
+        <v>60000</v>
       </c>
       <c r="E76" t="s">
         <v>178</v>
       </c>
       <c r="F76" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="G76" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H76" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
     </row>
     <row r="77" spans="1:8">
       <c r="A77" s="1">
-        <v>47798</v>
+        <v>4925</v>
       </c>
       <c r="B77" t="s">
         <v>82</v>
@@ -3102,24 +3120,24 @@
         <v>103</v>
       </c>
       <c r="D77">
-        <v>20000</v>
+        <v>60000</v>
       </c>
       <c r="E77" t="s">
         <v>179</v>
       </c>
       <c r="F77" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="G77" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="H77" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
     </row>
     <row r="78" spans="1:8">
       <c r="A78" s="1">
-        <v>19603</v>
+        <v>6726</v>
       </c>
       <c r="B78" t="s">
         <v>83</v>
@@ -3128,24 +3146,24 @@
         <v>103</v>
       </c>
       <c r="D78">
-        <v>78000</v>
+        <v>50000</v>
       </c>
       <c r="E78" t="s">
         <v>180</v>
       </c>
       <c r="F78" t="s">
-        <v>234</v>
+        <v>207</v>
       </c>
       <c r="G78" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H78" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
     </row>
     <row r="79" spans="1:8">
       <c r="A79" s="1">
-        <v>32998</v>
+        <v>46135</v>
       </c>
       <c r="B79" t="s">
         <v>84</v>
@@ -3154,24 +3172,24 @@
         <v>103</v>
       </c>
       <c r="D79">
-        <v>450000</v>
+        <v>70000</v>
       </c>
       <c r="E79" t="s">
         <v>181</v>
       </c>
       <c r="F79" t="s">
-        <v>235</v>
+        <v>210</v>
       </c>
       <c r="G79" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="H79" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
     </row>
     <row r="80" spans="1:8">
       <c r="A80" s="1">
-        <v>4512</v>
+        <v>22714</v>
       </c>
       <c r="B80" t="s">
         <v>85</v>
@@ -3180,24 +3198,24 @@
         <v>103</v>
       </c>
       <c r="D80">
-        <v>60000</v>
+        <v>50000</v>
       </c>
       <c r="E80" t="s">
         <v>182</v>
       </c>
       <c r="F80" t="s">
-        <v>236</v>
+        <v>201</v>
       </c>
       <c r="G80" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="H80" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
     </row>
     <row r="81" spans="1:8">
       <c r="A81" s="1">
-        <v>3242</v>
+        <v>50093</v>
       </c>
       <c r="B81" t="s">
         <v>86</v>
@@ -3206,24 +3224,24 @@
         <v>103</v>
       </c>
       <c r="D81">
-        <v>50000</v>
+        <v>60000</v>
       </c>
       <c r="E81" t="s">
         <v>183</v>
       </c>
       <c r="F81" t="s">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="G81" t="s">
-        <v>239</v>
+        <v>250</v>
       </c>
       <c r="H81" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
     </row>
     <row r="82" spans="1:8">
       <c r="A82" s="1">
-        <v>22478</v>
+        <v>55385</v>
       </c>
       <c r="B82" t="s">
         <v>87</v>
@@ -3232,24 +3250,24 @@
         <v>103</v>
       </c>
       <c r="D82">
-        <v>50000</v>
+        <v>80000</v>
       </c>
       <c r="E82" t="s">
         <v>184</v>
       </c>
       <c r="F82" t="s">
-        <v>201</v>
+        <v>222</v>
       </c>
       <c r="G82" t="s">
-        <v>239</v>
+        <v>250</v>
       </c>
       <c r="H82" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
     </row>
     <row r="83" spans="1:8">
       <c r="A83" s="1">
-        <v>34823</v>
+        <v>34545</v>
       </c>
       <c r="B83" t="s">
         <v>88</v>
@@ -3258,24 +3276,24 @@
         <v>103</v>
       </c>
       <c r="D83">
-        <v>60000</v>
+        <v>50000</v>
       </c>
       <c r="E83" t="s">
         <v>185</v>
       </c>
       <c r="F83" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="G83" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="H83" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
     </row>
     <row r="84" spans="1:8">
       <c r="A84" s="1">
-        <v>15556</v>
+        <v>48191</v>
       </c>
       <c r="B84" t="s">
         <v>89</v>
@@ -3284,24 +3302,24 @@
         <v>103</v>
       </c>
       <c r="D84">
-        <v>70000</v>
+        <v>700000</v>
       </c>
       <c r="E84" t="s">
         <v>186</v>
       </c>
       <c r="F84" t="s">
-        <v>216</v>
+        <v>239</v>
       </c>
       <c r="G84" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="H84" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
     </row>
     <row r="85" spans="1:8">
       <c r="A85" s="1">
-        <v>3643</v>
+        <v>52035</v>
       </c>
       <c r="B85" t="s">
         <v>90</v>
@@ -3316,18 +3334,18 @@
         <v>187</v>
       </c>
       <c r="F85" t="s">
-        <v>208</v>
+        <v>229</v>
       </c>
       <c r="G85" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="H85" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
     </row>
     <row r="86" spans="1:8">
       <c r="A86" s="1">
-        <v>36693</v>
+        <v>20605</v>
       </c>
       <c r="B86" t="s">
         <v>91</v>
@@ -3336,24 +3354,24 @@
         <v>103</v>
       </c>
       <c r="D86">
-        <v>50000</v>
+        <v>260000</v>
       </c>
       <c r="E86" t="s">
         <v>188</v>
       </c>
       <c r="F86" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
       <c r="G86" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="H86" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
     </row>
     <row r="87" spans="1:8">
       <c r="A87" s="1">
-        <v>55365</v>
+        <v>24497</v>
       </c>
       <c r="B87" t="s">
         <v>92</v>
@@ -3362,24 +3380,24 @@
         <v>103</v>
       </c>
       <c r="D87">
-        <v>80000</v>
+        <v>727272</v>
       </c>
       <c r="E87" t="s">
         <v>189</v>
       </c>
       <c r="F87" t="s">
-        <v>222</v>
+        <v>200</v>
       </c>
       <c r="G87" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="H87" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
     </row>
     <row r="88" spans="1:8">
       <c r="A88" s="1">
-        <v>6698</v>
+        <v>5506</v>
       </c>
       <c r="B88" t="s">
         <v>93</v>
@@ -3388,24 +3406,24 @@
         <v>103</v>
       </c>
       <c r="D88">
-        <v>200000</v>
+        <v>70000</v>
       </c>
       <c r="E88" t="s">
         <v>190</v>
       </c>
       <c r="F88" t="s">
-        <v>199</v>
+        <v>240</v>
       </c>
       <c r="G88" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="H88" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
     </row>
     <row r="89" spans="1:8">
       <c r="A89" s="1">
-        <v>34681</v>
+        <v>20096</v>
       </c>
       <c r="B89" t="s">
         <v>94</v>
@@ -3414,24 +3432,24 @@
         <v>103</v>
       </c>
       <c r="D89">
-        <v>50000</v>
+        <v>160000</v>
       </c>
       <c r="E89" t="s">
         <v>191</v>
       </c>
       <c r="F89" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
       <c r="G89" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="H89" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
     </row>
     <row r="90" spans="1:8">
       <c r="A90" s="1">
-        <v>38361</v>
+        <v>29250</v>
       </c>
       <c r="B90" t="s">
         <v>95</v>
@@ -3440,24 +3458,24 @@
         <v>103</v>
       </c>
       <c r="D90">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="E90" t="s">
         <v>192</v>
       </c>
       <c r="F90" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="G90" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="H90" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
     </row>
     <row r="91" spans="1:8">
       <c r="A91" s="1">
-        <v>7317</v>
+        <v>56584</v>
       </c>
       <c r="B91" t="s">
         <v>96</v>
@@ -3466,24 +3484,24 @@
         <v>103</v>
       </c>
       <c r="D91">
-        <v>90000</v>
+        <v>50000</v>
       </c>
       <c r="E91" t="s">
         <v>193</v>
       </c>
       <c r="F91" t="s">
-        <v>199</v>
+        <v>222</v>
       </c>
       <c r="G91" t="s">
-        <v>239</v>
+        <v>250</v>
       </c>
       <c r="H91" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
     </row>
     <row r="92" spans="1:8">
       <c r="A92" s="1">
-        <v>35583</v>
+        <v>4593</v>
       </c>
       <c r="B92" t="s">
         <v>97</v>
@@ -3492,24 +3510,24 @@
         <v>103</v>
       </c>
       <c r="D92">
-        <v>50000</v>
+        <v>1860909</v>
       </c>
       <c r="E92" t="s">
         <v>194</v>
       </c>
       <c r="F92" t="s">
-        <v>215</v>
+        <v>242</v>
       </c>
       <c r="G92" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="H92" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
     </row>
     <row r="93" spans="1:8">
       <c r="A93" s="1">
-        <v>5680</v>
+        <v>53075</v>
       </c>
       <c r="B93" t="s">
         <v>98</v>
@@ -3518,24 +3536,24 @@
         <v>103</v>
       </c>
       <c r="D93">
-        <v>60000</v>
+        <v>900000</v>
       </c>
       <c r="E93" t="s">
         <v>195</v>
       </c>
       <c r="F93" t="s">
-        <v>199</v>
+        <v>243</v>
       </c>
       <c r="G93" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="H93" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
     </row>
     <row r="94" spans="1:8">
       <c r="A94" s="1">
-        <v>53329</v>
+        <v>12752</v>
       </c>
       <c r="B94" t="s">
         <v>99</v>
@@ -3544,24 +3562,24 @@
         <v>103</v>
       </c>
       <c r="D94">
-        <v>70000</v>
+        <v>50000</v>
       </c>
       <c r="E94" t="s">
-        <v>137</v>
+        <v>196</v>
       </c>
       <c r="F94" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="G94" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H94" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
     </row>
     <row r="95" spans="1:8">
       <c r="A95" s="1">
-        <v>40885</v>
+        <v>7492</v>
       </c>
       <c r="B95" t="s">
         <v>100</v>
@@ -3570,24 +3588,24 @@
         <v>103</v>
       </c>
       <c r="D95">
-        <v>80000</v>
+        <v>130000</v>
       </c>
       <c r="E95" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F95" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G95" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="H95" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
     </row>
     <row r="96" spans="1:8">
       <c r="A96" s="1">
-        <v>35993</v>
+        <v>6666</v>
       </c>
       <c r="B96" t="s">
         <v>101</v>
@@ -3596,24 +3614,24 @@
         <v>103</v>
       </c>
       <c r="D96">
-        <v>90000</v>
+        <v>70000</v>
       </c>
       <c r="E96" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F96" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="G96" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="H96" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
     </row>
     <row r="97" spans="1:8">
       <c r="A97" s="1">
-        <v>38783</v>
+        <v>47407</v>
       </c>
       <c r="B97" t="s">
         <v>102</v>
@@ -3622,19 +3640,19 @@
         <v>103</v>
       </c>
       <c r="D97">
-        <v>5000</v>
+        <v>60000</v>
       </c>
       <c r="E97" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F97" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="G97" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="H97" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
     </row>
   </sheetData>

--- a/test_sample.xlsx
+++ b/test_sample.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="194">
   <si>
     <t>JENO</t>
   </si>
@@ -37,739 +37,562 @@
     <t>유형</t>
   </si>
   <si>
-    <t>20170620853</t>
-  </si>
-  <si>
-    <t>201705231798</t>
-  </si>
-  <si>
-    <t>2017081716</t>
-  </si>
-  <si>
-    <t>20170825231</t>
-  </si>
-  <si>
-    <t>201704241780</t>
-  </si>
-  <si>
-    <t>201701202314</t>
-  </si>
-  <si>
-    <t>20170116287</t>
-  </si>
-  <si>
-    <t>201705231695</t>
-  </si>
-  <si>
-    <t>201702221420</t>
-  </si>
-  <si>
-    <t>2017061695</t>
-  </si>
-  <si>
-    <t>201706201761</t>
-  </si>
-  <si>
-    <t>20170725267</t>
-  </si>
-  <si>
-    <t>201710201191</t>
-  </si>
-  <si>
-    <t>20170626373</t>
-  </si>
-  <si>
-    <t>20170125403</t>
-  </si>
-  <si>
-    <t>20171205157</t>
-  </si>
-  <si>
-    <t>20170921854</t>
-  </si>
-  <si>
-    <t>20170825571</t>
-  </si>
-  <si>
-    <t>20170321476</t>
-  </si>
-  <si>
-    <t>201707202370</t>
-  </si>
-  <si>
-    <t>2017010366</t>
-  </si>
-  <si>
-    <t>20170921393</t>
-  </si>
-  <si>
-    <t>201707201102</t>
-  </si>
-  <si>
-    <t>2017070762</t>
-  </si>
-  <si>
-    <t>201708211358</t>
-  </si>
-  <si>
-    <t>201705232086</t>
-  </si>
-  <si>
-    <t>2017071925</t>
-  </si>
-  <si>
-    <t>20170227193</t>
-  </si>
-  <si>
-    <t>201709211679</t>
-  </si>
-  <si>
-    <t>20170720250</t>
-  </si>
-  <si>
-    <t>201708212005</t>
-  </si>
-  <si>
-    <t>201712201561</t>
-  </si>
-  <si>
-    <t>20171020853</t>
-  </si>
-  <si>
-    <t>20171020997</t>
-  </si>
-  <si>
-    <t>20170731457</t>
-  </si>
-  <si>
-    <t>201703212937</t>
-  </si>
-  <si>
-    <t>20170918252</t>
-  </si>
-  <si>
-    <t>201710202129</t>
-  </si>
-  <si>
-    <t>20170424431</t>
-  </si>
-  <si>
-    <t>20171226610</t>
-  </si>
-  <si>
-    <t>201701202446</t>
-  </si>
-  <si>
-    <t>201709213017</t>
-  </si>
-  <si>
-    <t>20170525440</t>
-  </si>
-  <si>
-    <t>201705231493</t>
-  </si>
-  <si>
-    <t>20171218173</t>
-  </si>
-  <si>
-    <t>20170630988</t>
-  </si>
-  <si>
-    <t>201706201319</t>
-  </si>
-  <si>
-    <t>20170821924</t>
-  </si>
-  <si>
-    <t>20170626357</t>
-  </si>
-  <si>
-    <t>201704242880</t>
-  </si>
-  <si>
-    <t>201710201882</t>
-  </si>
-  <si>
-    <t>201704242983</t>
-  </si>
-  <si>
-    <t>20171127217</t>
-  </si>
-  <si>
-    <t>20170925307</t>
-  </si>
-  <si>
-    <t>201704241202</t>
-  </si>
-  <si>
-    <t>20171220407</t>
-  </si>
-  <si>
-    <t>201703212187</t>
-  </si>
-  <si>
-    <t>20170321445</t>
-  </si>
-  <si>
-    <t>2017092930</t>
-  </si>
-  <si>
-    <t>2017120185</t>
-  </si>
-  <si>
-    <t>201705232210</t>
-  </si>
-  <si>
-    <t>201703211011</t>
-  </si>
-  <si>
-    <t>201711202436</t>
-  </si>
-  <si>
-    <t>20170321811</t>
-  </si>
-  <si>
-    <t>20170116108</t>
-  </si>
-  <si>
-    <t>201708212605</t>
-  </si>
-  <si>
-    <t>20171231614</t>
-  </si>
-  <si>
-    <t>20170424221</t>
-  </si>
-  <si>
-    <t>201712202611</t>
-  </si>
-  <si>
-    <t>201712201019</t>
-  </si>
-  <si>
-    <t>20170921933</t>
-  </si>
-  <si>
-    <t>20170508139</t>
-  </si>
-  <si>
-    <t>2017071467</t>
-  </si>
-  <si>
-    <t>201708211366</t>
-  </si>
-  <si>
-    <t>20170807216</t>
-  </si>
-  <si>
-    <t>20170206202</t>
-  </si>
-  <si>
-    <t>201702221178</t>
-  </si>
-  <si>
-    <t>201710202418</t>
-  </si>
-  <si>
-    <t>201705232980</t>
-  </si>
-  <si>
-    <t>201711201524</t>
-  </si>
-  <si>
-    <t>201712201918</t>
-  </si>
-  <si>
-    <t>20170821463</t>
-  </si>
-  <si>
-    <t>2017111092</t>
-  </si>
-  <si>
-    <t>20171127274</t>
-  </si>
-  <si>
-    <t>20170523871</t>
-  </si>
-  <si>
-    <t>2017062030</t>
-  </si>
-  <si>
-    <t>20170216220</t>
-  </si>
-  <si>
-    <t>20170523362</t>
-  </si>
-  <si>
-    <t>20170717281</t>
-  </si>
-  <si>
-    <t>201712203117</t>
-  </si>
-  <si>
-    <t>20170131443</t>
-  </si>
-  <si>
-    <t>2017121075</t>
-  </si>
-  <si>
-    <t>201703212460</t>
-  </si>
-  <si>
-    <t>201702221944</t>
-  </si>
-  <si>
-    <t>201702221118</t>
-  </si>
-  <si>
-    <t>20171025505</t>
+    <t>2017121476</t>
+  </si>
+  <si>
+    <t>2017121478</t>
+  </si>
+  <si>
+    <t>2017011069</t>
+  </si>
+  <si>
+    <t>20170116129</t>
+  </si>
+  <si>
+    <t>201701201867</t>
+  </si>
+  <si>
+    <t>201701257</t>
+  </si>
+  <si>
+    <t>20170131604</t>
+  </si>
+  <si>
+    <t>20170131758</t>
+  </si>
+  <si>
+    <t>2017021034</t>
+  </si>
+  <si>
+    <t>2017021599</t>
+  </si>
+  <si>
+    <t>20170215112</t>
+  </si>
+  <si>
+    <t>201702221301</t>
+  </si>
+  <si>
+    <t>201702223152</t>
+  </si>
+  <si>
+    <t>20170228300</t>
+  </si>
+  <si>
+    <t>20170228781</t>
+  </si>
+  <si>
+    <t>20170310170</t>
+  </si>
+  <si>
+    <t>201703206</t>
+  </si>
+  <si>
+    <t>201703212020</t>
+  </si>
+  <si>
+    <t>20170327364</t>
+  </si>
+  <si>
+    <t>20170331659</t>
+  </si>
+  <si>
+    <t>201703311062</t>
+  </si>
+  <si>
+    <t>201703311166</t>
+  </si>
+  <si>
+    <t>2017040757</t>
+  </si>
+  <si>
+    <t>20170410179</t>
+  </si>
+  <si>
+    <t>20170413206</t>
+  </si>
+  <si>
+    <t>20170424157</t>
+  </si>
+  <si>
+    <t>201704242823</t>
+  </si>
+  <si>
+    <t>2017042712</t>
+  </si>
+  <si>
+    <t>20170430586</t>
+  </si>
+  <si>
+    <t>20170508274</t>
+  </si>
+  <si>
+    <t>20170510155</t>
+  </si>
+  <si>
+    <t>201705231</t>
+  </si>
+  <si>
+    <t>201705232659</t>
+  </si>
+  <si>
+    <t>2017053051</t>
+  </si>
+  <si>
+    <t>20170531771</t>
+  </si>
+  <si>
+    <t>20170531860</t>
+  </si>
+  <si>
+    <t>2017060256</t>
+  </si>
+  <si>
+    <t>2017061096</t>
+  </si>
+  <si>
+    <t>20170620674</t>
+  </si>
+  <si>
+    <t>201706203197</t>
+  </si>
+  <si>
+    <t>201706203218</t>
+  </si>
+  <si>
+    <t>2017062660</t>
+  </si>
+  <si>
+    <t>20170630927</t>
+  </si>
+  <si>
+    <t>201706301086</t>
+  </si>
+  <si>
+    <t>201707272</t>
+  </si>
+  <si>
+    <t>20170731862</t>
+  </si>
+  <si>
+    <t>201707311158</t>
+  </si>
+  <si>
+    <t>2017080317</t>
+  </si>
+  <si>
+    <t>20170810152</t>
+  </si>
+  <si>
+    <t>201708211393</t>
+  </si>
+  <si>
+    <t>2017082362</t>
+  </si>
+  <si>
+    <t>20170831820</t>
+  </si>
+  <si>
+    <t>201708311095</t>
+  </si>
+  <si>
+    <t>2017090753</t>
+  </si>
+  <si>
+    <t>2017091529</t>
+  </si>
+  <si>
+    <t>201709211744</t>
+  </si>
+  <si>
+    <t>20170925197</t>
+  </si>
+  <si>
+    <t>201709277</t>
+  </si>
+  <si>
+    <t>20170930906</t>
+  </si>
+  <si>
+    <t>20170930932</t>
+  </si>
+  <si>
+    <t>201709301048</t>
+  </si>
+  <si>
+    <t>201710114</t>
+  </si>
+  <si>
+    <t>20171020551</t>
+  </si>
+  <si>
+    <t>201710203157</t>
+  </si>
+  <si>
+    <t>20171031499</t>
+  </si>
+  <si>
+    <t>20171031760</t>
+  </si>
+  <si>
+    <t>20171031823</t>
+  </si>
+  <si>
+    <t>20171031980</t>
+  </si>
+  <si>
+    <t>20171106320</t>
+  </si>
+  <si>
+    <t>20171110154</t>
+  </si>
+  <si>
+    <t>201711201336</t>
+  </si>
+  <si>
+    <t>20171127180</t>
+  </si>
+  <si>
+    <t>20171130999</t>
+  </si>
+  <si>
+    <t>201711301114</t>
+  </si>
+  <si>
+    <t>201711301170</t>
+  </si>
+  <si>
+    <t>201711301171</t>
   </si>
   <si>
     <t>제품매출</t>
   </si>
   <si>
-    <t>08139</t>
-  </si>
-  <si>
-    <t>13343</t>
-  </si>
-  <si>
-    <t>09624</t>
-  </si>
-  <si>
-    <t>05302</t>
-  </si>
-  <si>
-    <t>13295</t>
-  </si>
-  <si>
-    <t>81072</t>
-  </si>
-  <si>
-    <t>13886</t>
-  </si>
-  <si>
-    <t>12955</t>
-  </si>
-  <si>
-    <t>12052</t>
-  </si>
-  <si>
-    <t>11855</t>
-  </si>
-  <si>
-    <t>13004</t>
-  </si>
-  <si>
-    <t>09982</t>
-  </si>
-  <si>
-    <t>02366</t>
-  </si>
-  <si>
-    <t>13540</t>
-  </si>
-  <si>
-    <t>13949</t>
-  </si>
-  <si>
-    <t>14036</t>
-  </si>
-  <si>
-    <t>09802</t>
-  </si>
-  <si>
-    <t>14489</t>
-  </si>
-  <si>
-    <t>04018</t>
-  </si>
-  <si>
-    <t>81214</t>
-  </si>
-  <si>
-    <t>12001</t>
-  </si>
-  <si>
-    <t>03647</t>
-  </si>
-  <si>
-    <t>10664</t>
-  </si>
-  <si>
-    <t>09411</t>
-  </si>
-  <si>
-    <t>12125</t>
-  </si>
-  <si>
-    <t>14430</t>
-  </si>
-  <si>
-    <t>80070</t>
-  </si>
-  <si>
-    <t>89215</t>
-  </si>
-  <si>
-    <t>13244</t>
-  </si>
-  <si>
-    <t>00302</t>
-  </si>
-  <si>
-    <t>14336</t>
-  </si>
-  <si>
-    <t>13748</t>
-  </si>
-  <si>
-    <t>84064</t>
-  </si>
-  <si>
-    <t>11130</t>
-  </si>
-  <si>
-    <t>12679</t>
-  </si>
-  <si>
-    <t>87226</t>
-  </si>
-  <si>
-    <t>15266</t>
-  </si>
-  <si>
-    <t>11330</t>
-  </si>
-  <si>
-    <t>03296</t>
+    <t>09370</t>
+  </si>
+  <si>
+    <t>07974</t>
+  </si>
+  <si>
+    <t>13395</t>
+  </si>
+  <si>
+    <t>13327</t>
+  </si>
+  <si>
+    <t>10285</t>
+  </si>
+  <si>
+    <t>05260</t>
+  </si>
+  <si>
+    <t>05072</t>
+  </si>
+  <si>
+    <t>04003</t>
+  </si>
+  <si>
+    <t>07750</t>
   </si>
   <si>
     <t>04031</t>
   </si>
   <si>
-    <t>82028</t>
-  </si>
-  <si>
-    <t>88680</t>
-  </si>
-  <si>
-    <t>14704</t>
-  </si>
-  <si>
-    <t>12273</t>
-  </si>
-  <si>
-    <t>14083</t>
-  </si>
-  <si>
-    <t>01017</t>
-  </si>
-  <si>
-    <t>11353</t>
-  </si>
-  <si>
-    <t>09975</t>
-  </si>
-  <si>
-    <t>13223</t>
-  </si>
-  <si>
-    <t>85317</t>
-  </si>
-  <si>
-    <t>83422</t>
-  </si>
-  <si>
-    <t>87584</t>
-  </si>
-  <si>
-    <t>01008</t>
-  </si>
-  <si>
-    <t>09698</t>
-  </si>
-  <si>
-    <t>11120</t>
-  </si>
-  <si>
-    <t>03855</t>
-  </si>
-  <si>
-    <t>80583</t>
-  </si>
-  <si>
-    <t>03668</t>
-  </si>
-  <si>
-    <t>11829</t>
-  </si>
-  <si>
-    <t>07661</t>
-  </si>
-  <si>
-    <t>14909</t>
-  </si>
-  <si>
-    <t>10438</t>
-  </si>
-  <si>
-    <t>01841</t>
-  </si>
-  <si>
-    <t>08612</t>
-  </si>
-  <si>
-    <t>13229</t>
-  </si>
-  <si>
-    <t>83267</t>
-  </si>
-  <si>
-    <t>07525</t>
-  </si>
-  <si>
-    <t>00421</t>
-  </si>
-  <si>
-    <t>84838</t>
-  </si>
-  <si>
-    <t>05240</t>
-  </si>
-  <si>
-    <t>10313</t>
-  </si>
-  <si>
-    <t>11575</t>
-  </si>
-  <si>
-    <t>00863</t>
-  </si>
-  <si>
-    <t>12140</t>
-  </si>
-  <si>
-    <t>85896</t>
-  </si>
-  <si>
-    <t>10124</t>
-  </si>
-  <si>
-    <t>10854</t>
-  </si>
-  <si>
-    <t>84346</t>
-  </si>
-  <si>
-    <t>87334</t>
-  </si>
-  <si>
-    <t>14846</t>
-  </si>
-  <si>
-    <t>13251</t>
-  </si>
-  <si>
-    <t>04115</t>
-  </si>
-  <si>
-    <t>11727</t>
-  </si>
-  <si>
-    <t>09931</t>
-  </si>
-  <si>
-    <t>09136</t>
-  </si>
-  <si>
-    <t>89399</t>
-  </si>
-  <si>
-    <t>81938</t>
-  </si>
-  <si>
-    <t>02286</t>
-  </si>
-  <si>
-    <t>89080</t>
-  </si>
-  <si>
-    <t>88719</t>
+    <t>11352</t>
+  </si>
+  <si>
+    <t>14799</t>
+  </si>
+  <si>
+    <t>88900</t>
+  </si>
+  <si>
+    <t>10212</t>
+  </si>
+  <si>
+    <t>04748</t>
+  </si>
+  <si>
+    <t>14199</t>
+  </si>
+  <si>
+    <t>13535</t>
+  </si>
+  <si>
+    <t>09431</t>
+  </si>
+  <si>
+    <t>03914</t>
+  </si>
+  <si>
+    <t>13860</t>
+  </si>
+  <si>
+    <t>14746</t>
+  </si>
+  <si>
+    <t>05777</t>
+  </si>
+  <si>
+    <t>84712</t>
+  </si>
+  <si>
+    <t>10076</t>
+  </si>
+  <si>
+    <t>13875</t>
+  </si>
+  <si>
+    <t>83545</t>
+  </si>
+  <si>
+    <t>14954</t>
+  </si>
+  <si>
+    <t>80063</t>
+  </si>
+  <si>
+    <t>14455</t>
+  </si>
+  <si>
+    <t>05346</t>
+  </si>
+  <si>
+    <t>15083</t>
+  </si>
+  <si>
+    <t>01878</t>
+  </si>
+  <si>
+    <t>14306</t>
+  </si>
+  <si>
+    <t>07898</t>
+  </si>
+  <si>
+    <t>85405</t>
+  </si>
+  <si>
+    <t>15207</t>
+  </si>
+  <si>
+    <t>12180</t>
+  </si>
+  <si>
+    <t>14409</t>
+  </si>
+  <si>
+    <t>82034</t>
+  </si>
+  <si>
+    <t>13537</t>
+  </si>
+  <si>
+    <t>01873</t>
+  </si>
+  <si>
+    <t>81524</t>
+  </si>
+  <si>
+    <t>14267</t>
+  </si>
+  <si>
+    <t>08189</t>
+  </si>
+  <si>
+    <t>09857</t>
+  </si>
+  <si>
+    <t>06786</t>
   </si>
   <si>
     <t>06779</t>
   </si>
   <si>
-    <t>12469</t>
-  </si>
-  <si>
-    <t>82380</t>
+    <t>15280</t>
   </si>
   <si>
     <t>13749</t>
   </si>
   <si>
-    <t>10692</t>
-  </si>
-  <si>
-    <t>89096</t>
+    <t>10939</t>
+  </si>
+  <si>
+    <t>07546</t>
+  </si>
+  <si>
+    <t>20171214</t>
+  </si>
+  <si>
+    <t>20170110</t>
+  </si>
+  <si>
+    <t>20170116</t>
+  </si>
+  <si>
+    <t>20170120</t>
+  </si>
+  <si>
+    <t>20170125</t>
+  </si>
+  <si>
+    <t>20170131</t>
+  </si>
+  <si>
+    <t>20170210</t>
+  </si>
+  <si>
+    <t>20170215</t>
+  </si>
+  <si>
+    <t>20170222</t>
+  </si>
+  <si>
+    <t>20170228</t>
+  </si>
+  <si>
+    <t>20170310</t>
+  </si>
+  <si>
+    <t>20170320</t>
+  </si>
+  <si>
+    <t>20170321</t>
+  </si>
+  <si>
+    <t>20170327</t>
+  </si>
+  <si>
+    <t>20170331</t>
+  </si>
+  <si>
+    <t>20170407</t>
+  </si>
+  <si>
+    <t>20170410</t>
+  </si>
+  <si>
+    <t>20170413</t>
+  </si>
+  <si>
+    <t>20170424</t>
+  </si>
+  <si>
+    <t>20170427</t>
+  </si>
+  <si>
+    <t>20170430</t>
+  </si>
+  <si>
+    <t>20170508</t>
+  </si>
+  <si>
+    <t>20170510</t>
+  </si>
+  <si>
+    <t>20170523</t>
+  </si>
+  <si>
+    <t>20170530</t>
+  </si>
+  <si>
+    <t>20170531</t>
+  </si>
+  <si>
+    <t>20170602</t>
+  </si>
+  <si>
+    <t>20170610</t>
   </si>
   <si>
     <t>20170620</t>
   </si>
   <si>
-    <t>20170523</t>
-  </si>
-  <si>
-    <t>20170817</t>
-  </si>
-  <si>
-    <t>20170825</t>
-  </si>
-  <si>
-    <t>20170424</t>
-  </si>
-  <si>
-    <t>20170120</t>
-  </si>
-  <si>
-    <t>20170116</t>
-  </si>
-  <si>
-    <t>20170222</t>
-  </si>
-  <si>
-    <t>20170616</t>
-  </si>
-  <si>
-    <t>20170725</t>
+    <t>20170626</t>
+  </si>
+  <si>
+    <t>20170630</t>
+  </si>
+  <si>
+    <t>20170727</t>
+  </si>
+  <si>
+    <t>20170731</t>
+  </si>
+  <si>
+    <t>20170803</t>
+  </si>
+  <si>
+    <t>20170810</t>
+  </si>
+  <si>
+    <t>20170821</t>
+  </si>
+  <si>
+    <t>20170823</t>
+  </si>
+  <si>
+    <t>20170831</t>
+  </si>
+  <si>
+    <t>20170907</t>
+  </si>
+  <si>
+    <t>20170915</t>
+  </si>
+  <si>
+    <t>20170921</t>
+  </si>
+  <si>
+    <t>20170925</t>
+  </si>
+  <si>
+    <t>20170927</t>
+  </si>
+  <si>
+    <t>20170930</t>
+  </si>
+  <si>
+    <t>20171011</t>
   </si>
   <si>
     <t>20171020</t>
   </si>
   <si>
-    <t>20170626</t>
-  </si>
-  <si>
-    <t>20170125</t>
-  </si>
-  <si>
-    <t>20171205</t>
-  </si>
-  <si>
-    <t>20170921</t>
-  </si>
-  <si>
-    <t>20170321</t>
-  </si>
-  <si>
-    <t>20170720</t>
-  </si>
-  <si>
-    <t>20170103</t>
-  </si>
-  <si>
-    <t>20170707</t>
-  </si>
-  <si>
-    <t>20170821</t>
-  </si>
-  <si>
-    <t>20170719</t>
-  </si>
-  <si>
-    <t>20170227</t>
-  </si>
-  <si>
-    <t>20171220</t>
-  </si>
-  <si>
-    <t>20170731</t>
-  </si>
-  <si>
-    <t>20170918</t>
-  </si>
-  <si>
-    <t>20171226</t>
-  </si>
-  <si>
-    <t>20170525</t>
-  </si>
-  <si>
-    <t>20171218</t>
-  </si>
-  <si>
-    <t>20170630</t>
+    <t>20171031</t>
+  </si>
+  <si>
+    <t>20171106</t>
+  </si>
+  <si>
+    <t>20171110</t>
+  </si>
+  <si>
+    <t>20171120</t>
   </si>
   <si>
     <t>20171127</t>
   </si>
   <si>
-    <t>20170925</t>
-  </si>
-  <si>
-    <t>20170929</t>
-  </si>
-  <si>
-    <t>20171201</t>
-  </si>
-  <si>
-    <t>20171120</t>
-  </si>
-  <si>
-    <t>20171231</t>
-  </si>
-  <si>
-    <t>20170508</t>
-  </si>
-  <si>
-    <t>20170714</t>
-  </si>
-  <si>
-    <t>20170807</t>
-  </si>
-  <si>
-    <t>20170206</t>
-  </si>
-  <si>
-    <t>20171110</t>
-  </si>
-  <si>
-    <t>20170216</t>
-  </si>
-  <si>
-    <t>20170717</t>
-  </si>
-  <si>
-    <t>20170131</t>
-  </si>
-  <si>
-    <t>20171210</t>
-  </si>
-  <si>
-    <t>20171025</t>
+    <t>20171130</t>
+  </si>
+  <si>
+    <t>0000000517</t>
+  </si>
+  <si>
+    <t>0000001089</t>
   </si>
   <si>
     <t>0000001446</t>
   </si>
   <si>
-    <t>0000001183</t>
-  </si>
-  <si>
     <t>0000001152</t>
   </si>
   <si>
     <t>0000001389</t>
   </si>
   <si>
-    <t>0000001089</t>
-  </si>
-  <si>
     <t>0000001483</t>
-  </si>
-  <si>
-    <t>0000000517</t>
   </si>
   <si>
     <t>매출</t>
@@ -1130,7 +953,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H97"/>
+  <dimension ref="A1:H77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1161,2498 +984,1978 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
-        <v>25271</v>
+        <v>53202</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="D2">
-        <v>70000</v>
+        <v>1072500366</v>
       </c>
       <c r="E2" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="F2" t="s">
-        <v>200</v>
+        <v>135</v>
       </c>
       <c r="G2" t="s">
-        <v>245</v>
+        <v>187</v>
       </c>
       <c r="H2" t="s">
-        <v>252</v>
+        <v>193</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1">
-        <v>21532</v>
+        <v>53203</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="D3">
-        <v>80000</v>
+        <v>731265891</v>
       </c>
       <c r="E3" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="F3" t="s">
-        <v>201</v>
+        <v>135</v>
       </c>
       <c r="G3" t="s">
-        <v>245</v>
+        <v>187</v>
       </c>
       <c r="H3" t="s">
-        <v>252</v>
+        <v>193</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1">
-        <v>34036</v>
+        <v>434</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="D4">
-        <v>70000</v>
+        <v>700000</v>
       </c>
       <c r="E4" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="F4" t="s">
-        <v>202</v>
+        <v>136</v>
       </c>
       <c r="G4" t="s">
-        <v>246</v>
+        <v>187</v>
       </c>
       <c r="H4" t="s">
-        <v>252</v>
+        <v>193</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1">
-        <v>37450</v>
+        <v>727</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="D5">
-        <v>60000</v>
+        <v>70000</v>
       </c>
       <c r="E5" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="F5" t="s">
-        <v>203</v>
+        <v>137</v>
       </c>
       <c r="G5" t="s">
-        <v>247</v>
+        <v>188</v>
       </c>
       <c r="H5" t="s">
-        <v>252</v>
+        <v>193</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1">
-        <v>16798</v>
+        <v>2670</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="D6">
-        <v>110000</v>
+        <v>100000</v>
       </c>
       <c r="E6" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="F6" t="s">
-        <v>204</v>
+        <v>138</v>
       </c>
       <c r="G6" t="s">
-        <v>245</v>
+        <v>189</v>
       </c>
       <c r="H6" t="s">
-        <v>252</v>
+        <v>193</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1">
-        <v>3117</v>
+        <v>3993</v>
       </c>
       <c r="B7" t="s">
         <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="D7">
-        <v>50000</v>
+        <v>300000</v>
       </c>
       <c r="E7" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="F7" t="s">
-        <v>205</v>
+        <v>139</v>
       </c>
       <c r="G7" t="s">
-        <v>245</v>
+        <v>190</v>
       </c>
       <c r="H7" t="s">
-        <v>252</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1">
-        <v>831</v>
+        <v>4610</v>
       </c>
       <c r="B8" t="s">
         <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="D8">
-        <v>100000</v>
+        <v>21012681</v>
       </c>
       <c r="E8" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="F8" t="s">
-        <v>206</v>
+        <v>140</v>
       </c>
       <c r="G8" t="s">
-        <v>248</v>
+        <v>187</v>
       </c>
       <c r="H8" t="s">
-        <v>252</v>
+        <v>193</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1">
-        <v>21429</v>
+        <v>4649</v>
       </c>
       <c r="B9" t="s">
         <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="D9">
-        <v>80000</v>
+        <v>21229950</v>
       </c>
       <c r="E9" t="s">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="F9" t="s">
-        <v>201</v>
+        <v>140</v>
       </c>
       <c r="G9" t="s">
-        <v>245</v>
+        <v>191</v>
       </c>
       <c r="H9" t="s">
-        <v>252</v>
+        <v>193</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1">
-        <v>6968</v>
+        <v>5101</v>
       </c>
       <c r="B10" t="s">
         <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="D10">
-        <v>80000</v>
+        <v>580000</v>
       </c>
       <c r="E10" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="F10" t="s">
-        <v>207</v>
+        <v>141</v>
       </c>
       <c r="G10" t="s">
-        <v>245</v>
+        <v>187</v>
       </c>
       <c r="H10" t="s">
-        <v>252</v>
+        <v>193</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1">
-        <v>24263</v>
+        <v>5277</v>
       </c>
       <c r="B11" t="s">
         <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="D11">
-        <v>8000</v>
+        <v>175683200</v>
       </c>
       <c r="E11" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="F11" t="s">
-        <v>208</v>
+        <v>142</v>
       </c>
       <c r="G11" t="s">
-        <v>249</v>
+        <v>187</v>
       </c>
       <c r="H11" t="s">
-        <v>252</v>
+        <v>193</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1">
-        <v>26179</v>
+        <v>5281</v>
       </c>
       <c r="B12" t="s">
         <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="D12">
-        <v>50000</v>
+        <v>32438714</v>
       </c>
       <c r="E12" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="F12" t="s">
-        <v>200</v>
+        <v>142</v>
       </c>
       <c r="G12" t="s">
-        <v>245</v>
+        <v>187</v>
       </c>
       <c r="H12" t="s">
-        <v>252</v>
+        <v>193</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1">
-        <v>32690</v>
+        <v>6849</v>
       </c>
       <c r="B13" t="s">
         <v>18</v>
       </c>
       <c r="C13" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="D13">
-        <v>40000</v>
+        <v>90000</v>
       </c>
       <c r="E13" t="s">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="F13" t="s">
-        <v>209</v>
+        <v>143</v>
       </c>
       <c r="G13" t="s">
-        <v>247</v>
+        <v>189</v>
       </c>
       <c r="H13" t="s">
-        <v>252</v>
+        <v>193</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1">
-        <v>44908</v>
+        <v>8690</v>
       </c>
       <c r="B14" t="s">
         <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="D14">
-        <v>50000</v>
+        <v>11719091</v>
       </c>
       <c r="E14" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="F14" t="s">
-        <v>210</v>
+        <v>143</v>
       </c>
       <c r="G14" t="s">
-        <v>250</v>
+        <v>191</v>
       </c>
       <c r="H14" t="s">
-        <v>252</v>
+        <v>193</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1">
-        <v>28019</v>
+        <v>9326</v>
       </c>
       <c r="B15" t="s">
         <v>20</v>
       </c>
       <c r="C15" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="D15">
-        <v>20000</v>
+        <v>18881500</v>
       </c>
       <c r="E15" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="F15" t="s">
-        <v>211</v>
+        <v>144</v>
       </c>
       <c r="G15" t="s">
-        <v>247</v>
+        <v>191</v>
       </c>
       <c r="H15" t="s">
-        <v>252</v>
+        <v>193</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1">
-        <v>4350</v>
+        <v>9359</v>
       </c>
       <c r="B16" t="s">
         <v>21</v>
       </c>
       <c r="C16" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="D16">
-        <v>20000</v>
+        <v>12285000</v>
       </c>
       <c r="E16" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="F16" t="s">
-        <v>212</v>
+        <v>144</v>
       </c>
       <c r="G16" t="s">
-        <v>247</v>
+        <v>187</v>
       </c>
       <c r="H16" t="s">
-        <v>252</v>
+        <v>193</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="1">
-        <v>52680</v>
+        <v>9931</v>
       </c>
       <c r="B17" t="s">
         <v>22</v>
       </c>
       <c r="C17" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="D17">
-        <v>30000</v>
+        <v>67067000</v>
       </c>
       <c r="E17" t="s">
-        <v>119</v>
+        <v>92</v>
       </c>
       <c r="F17" t="s">
-        <v>213</v>
+        <v>145</v>
       </c>
       <c r="G17" t="s">
-        <v>250</v>
+        <v>187</v>
       </c>
       <c r="H17" t="s">
-        <v>252</v>
+        <v>193</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="1">
-        <v>39784</v>
+        <v>10276</v>
       </c>
       <c r="B18" t="s">
         <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="D18">
-        <v>59090</v>
+        <v>750000</v>
       </c>
       <c r="E18" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="F18" t="s">
-        <v>214</v>
+        <v>146</v>
       </c>
       <c r="G18" t="s">
-        <v>245</v>
+        <v>187</v>
       </c>
       <c r="H18" t="s">
-        <v>252</v>
+        <v>193</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="1">
-        <v>37779</v>
+        <v>12312</v>
       </c>
       <c r="B19" t="s">
         <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="D19">
-        <v>8900</v>
+        <v>320000</v>
       </c>
       <c r="E19" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="F19" t="s">
-        <v>203</v>
+        <v>147</v>
       </c>
       <c r="G19" t="s">
-        <v>247</v>
+        <v>189</v>
       </c>
       <c r="H19" t="s">
-        <v>252</v>
+        <v>193</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="1">
-        <v>10768</v>
+        <v>13780</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="D20">
-        <v>60000</v>
+        <v>80000</v>
       </c>
       <c r="E20" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="F20" t="s">
-        <v>215</v>
+        <v>148</v>
       </c>
       <c r="G20" t="s">
-        <v>245</v>
+        <v>190</v>
       </c>
       <c r="H20" t="s">
-        <v>252</v>
+        <v>193</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="1">
-        <v>31613</v>
+        <v>14060</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="D21">
-        <v>50000</v>
+        <v>18096254</v>
       </c>
       <c r="E21" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="F21" t="s">
-        <v>216</v>
+        <v>149</v>
       </c>
       <c r="G21" t="s">
-        <v>245</v>
+        <v>187</v>
       </c>
       <c r="H21" t="s">
-        <v>252</v>
+        <v>193</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="1">
-        <v>54</v>
+        <v>14118</v>
       </c>
       <c r="B22" t="s">
         <v>27</v>
       </c>
       <c r="C22" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="D22">
-        <v>2181818</v>
+        <v>60978376</v>
       </c>
       <c r="E22" t="s">
-        <v>124</v>
+        <v>102</v>
       </c>
       <c r="F22" t="s">
-        <v>217</v>
+        <v>149</v>
       </c>
       <c r="G22" t="s">
-        <v>249</v>
+        <v>187</v>
       </c>
       <c r="H22" t="s">
-        <v>252</v>
+        <v>193</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="1">
-        <v>39323</v>
+        <v>14128</v>
       </c>
       <c r="B23" t="s">
         <v>28</v>
       </c>
       <c r="C23" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="D23">
-        <v>50000</v>
+        <v>67985098</v>
       </c>
       <c r="E23" t="s">
-        <v>125</v>
+        <v>84</v>
       </c>
       <c r="F23" t="s">
-        <v>214</v>
+        <v>149</v>
       </c>
       <c r="G23" t="s">
-        <v>245</v>
+        <v>187</v>
       </c>
       <c r="H23" t="s">
-        <v>252</v>
+        <v>193</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="1">
-        <v>30345</v>
+        <v>14521</v>
       </c>
       <c r="B24" t="s">
         <v>29</v>
       </c>
       <c r="C24" t="s">
+        <v>83</v>
+      </c>
+      <c r="D24">
+        <v>112901880</v>
+      </c>
+      <c r="E24" t="s">
         <v>103</v>
       </c>
-      <c r="D24">
-        <v>90000</v>
-      </c>
-      <c r="E24" t="s">
-        <v>126</v>
-      </c>
       <c r="F24" t="s">
-        <v>216</v>
+        <v>150</v>
       </c>
       <c r="G24" t="s">
-        <v>245</v>
+        <v>187</v>
       </c>
       <c r="H24" t="s">
-        <v>252</v>
+        <v>193</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="1">
-        <v>28781</v>
+        <v>14643</v>
       </c>
       <c r="B25" t="s">
         <v>30</v>
       </c>
       <c r="C25" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="D25">
-        <v>400000</v>
+        <v>66658900</v>
       </c>
       <c r="E25" t="s">
-        <v>127</v>
+        <v>92</v>
       </c>
       <c r="F25" t="s">
-        <v>218</v>
+        <v>151</v>
       </c>
       <c r="G25" t="s">
-        <v>248</v>
+        <v>187</v>
       </c>
       <c r="H25" t="s">
-        <v>252</v>
+        <v>193</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="1">
-        <v>35440</v>
+        <v>14871</v>
       </c>
       <c r="B26" t="s">
         <v>31</v>
       </c>
       <c r="C26" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="D26">
-        <v>50000</v>
+        <v>70000</v>
       </c>
       <c r="E26" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="F26" t="s">
-        <v>219</v>
+        <v>152</v>
       </c>
       <c r="G26" t="s">
-        <v>245</v>
+        <v>188</v>
       </c>
       <c r="H26" t="s">
-        <v>252</v>
+        <v>193</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="1">
-        <v>21820</v>
+        <v>15188</v>
       </c>
       <c r="B27" t="s">
         <v>32</v>
       </c>
       <c r="C27" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="D27">
-        <v>50000</v>
+        <v>13590595</v>
       </c>
       <c r="E27" t="s">
-        <v>129</v>
+        <v>105</v>
       </c>
       <c r="F27" t="s">
-        <v>201</v>
+        <v>153</v>
       </c>
       <c r="G27" t="s">
-        <v>245</v>
+        <v>187</v>
       </c>
       <c r="H27" t="s">
-        <v>252</v>
+        <v>193</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="1">
-        <v>29266</v>
+        <v>17841</v>
       </c>
       <c r="B28" t="s">
         <v>33</v>
       </c>
       <c r="C28" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="D28">
-        <v>2231092</v>
+        <v>50000</v>
       </c>
       <c r="E28" t="s">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="F28" t="s">
-        <v>220</v>
+        <v>153</v>
       </c>
       <c r="G28" t="s">
-        <v>248</v>
+        <v>189</v>
       </c>
       <c r="H28" t="s">
-        <v>252</v>
+        <v>193</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="1">
-        <v>8889</v>
+        <v>18691</v>
       </c>
       <c r="B29" t="s">
         <v>34</v>
       </c>
       <c r="C29" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="D29">
-        <v>40000</v>
+        <v>7545527</v>
       </c>
       <c r="E29" t="s">
-        <v>131</v>
+        <v>107</v>
       </c>
       <c r="F29" t="s">
-        <v>221</v>
+        <v>154</v>
       </c>
       <c r="G29" t="s">
-        <v>247</v>
+        <v>191</v>
       </c>
       <c r="H29" t="s">
-        <v>252</v>
+        <v>193</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="1">
-        <v>40609</v>
+        <v>18810</v>
       </c>
       <c r="B30" t="s">
         <v>35</v>
       </c>
       <c r="C30" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="D30">
-        <v>80000</v>
+        <v>50022956</v>
       </c>
       <c r="E30" t="s">
-        <v>132</v>
+        <v>89</v>
       </c>
       <c r="F30" t="s">
-        <v>214</v>
+        <v>155</v>
       </c>
       <c r="G30" t="s">
-        <v>245</v>
+        <v>187</v>
       </c>
       <c r="H30" t="s">
-        <v>252</v>
+        <v>193</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="1">
-        <v>29493</v>
+        <v>19234</v>
       </c>
       <c r="B31" t="s">
         <v>36</v>
       </c>
       <c r="C31" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="D31">
-        <v>50000</v>
+        <v>71001505</v>
       </c>
       <c r="E31" t="s">
-        <v>133</v>
+        <v>108</v>
       </c>
       <c r="F31" t="s">
-        <v>216</v>
+        <v>156</v>
       </c>
       <c r="G31" t="s">
-        <v>245</v>
+        <v>187</v>
       </c>
       <c r="H31" t="s">
-        <v>252</v>
+        <v>193</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="1">
-        <v>36087</v>
+        <v>19362</v>
       </c>
       <c r="B32" t="s">
         <v>37</v>
       </c>
       <c r="C32" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="D32">
-        <v>67000</v>
+        <v>73866100</v>
       </c>
       <c r="E32" t="s">
-        <v>134</v>
+        <v>92</v>
       </c>
       <c r="F32" t="s">
-        <v>219</v>
+        <v>157</v>
       </c>
       <c r="G32" t="s">
-        <v>245</v>
+        <v>187</v>
       </c>
       <c r="H32" t="s">
-        <v>252</v>
+        <v>193</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="1">
-        <v>55028</v>
+        <v>19765</v>
       </c>
       <c r="B33" t="s">
         <v>38</v>
       </c>
       <c r="C33" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="D33">
-        <v>90000</v>
+        <v>3238500</v>
       </c>
       <c r="E33" t="s">
-        <v>135</v>
+        <v>105</v>
       </c>
       <c r="F33" t="s">
-        <v>222</v>
+        <v>158</v>
       </c>
       <c r="G33" t="s">
-        <v>250</v>
+        <v>187</v>
       </c>
       <c r="H33" t="s">
-        <v>252</v>
+        <v>193</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="1">
-        <v>44570</v>
+        <v>22393</v>
       </c>
       <c r="B34" t="s">
         <v>39</v>
       </c>
       <c r="C34" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="D34">
-        <v>70000</v>
+        <v>140000</v>
       </c>
       <c r="E34" t="s">
-        <v>136</v>
+        <v>109</v>
       </c>
       <c r="F34" t="s">
-        <v>210</v>
+        <v>158</v>
       </c>
       <c r="G34" t="s">
-        <v>250</v>
+        <v>189</v>
       </c>
       <c r="H34" t="s">
-        <v>252</v>
+        <v>193</v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="1">
-        <v>44714</v>
+        <v>23439</v>
       </c>
       <c r="B35" t="s">
         <v>40</v>
       </c>
       <c r="C35" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="D35">
-        <v>70000</v>
+        <v>50000000</v>
       </c>
       <c r="E35" t="s">
-        <v>137</v>
+        <v>110</v>
       </c>
       <c r="F35" t="s">
-        <v>210</v>
+        <v>159</v>
       </c>
       <c r="G35" t="s">
-        <v>250</v>
+        <v>187</v>
       </c>
       <c r="H35" t="s">
-        <v>252</v>
+        <v>193</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="1">
-        <v>33061</v>
+        <v>23545</v>
       </c>
       <c r="B36" t="s">
         <v>41</v>
       </c>
       <c r="C36" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="D36">
-        <v>110000</v>
+        <v>181167859</v>
       </c>
       <c r="E36" t="s">
-        <v>138</v>
+        <v>84</v>
       </c>
       <c r="F36" t="s">
-        <v>223</v>
+        <v>160</v>
       </c>
       <c r="G36" t="s">
-        <v>249</v>
+        <v>187</v>
       </c>
       <c r="H36" t="s">
-        <v>252</v>
+        <v>193</v>
       </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="1">
-        <v>13229</v>
+        <v>23555</v>
       </c>
       <c r="B37" t="s">
         <v>42</v>
       </c>
       <c r="C37" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="D37">
-        <v>50000</v>
+        <v>71645988</v>
       </c>
       <c r="E37" t="s">
-        <v>139</v>
+        <v>101</v>
       </c>
       <c r="F37" t="s">
-        <v>215</v>
+        <v>160</v>
       </c>
       <c r="G37" t="s">
-        <v>245</v>
+        <v>187</v>
       </c>
       <c r="H37" t="s">
-        <v>252</v>
+        <v>193</v>
       </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="1">
-        <v>38908</v>
+        <v>23617</v>
       </c>
       <c r="B38" t="s">
         <v>43</v>
       </c>
       <c r="C38" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="D38">
-        <v>70000</v>
+        <v>3600000</v>
       </c>
       <c r="E38" t="s">
-        <v>140</v>
+        <v>111</v>
       </c>
       <c r="F38" t="s">
-        <v>224</v>
+        <v>161</v>
       </c>
       <c r="G38" t="s">
-        <v>249</v>
+        <v>188</v>
       </c>
       <c r="H38" t="s">
-        <v>252</v>
+        <v>193</v>
       </c>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="1">
-        <v>45846</v>
+        <v>24106</v>
       </c>
       <c r="B39" t="s">
         <v>44</v>
       </c>
       <c r="C39" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="D39">
-        <v>50000</v>
+        <v>545455</v>
       </c>
       <c r="E39" t="s">
-        <v>141</v>
+        <v>112</v>
       </c>
       <c r="F39" t="s">
-        <v>210</v>
+        <v>162</v>
       </c>
       <c r="G39" t="s">
-        <v>250</v>
+        <v>187</v>
       </c>
       <c r="H39" t="s">
-        <v>252</v>
+        <v>193</v>
       </c>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="1">
-        <v>15450</v>
+        <v>25092</v>
       </c>
       <c r="B40" t="s">
         <v>45</v>
       </c>
       <c r="C40" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="D40">
-        <v>50000</v>
+        <v>70000</v>
       </c>
       <c r="E40" t="s">
-        <v>142</v>
+        <v>113</v>
       </c>
       <c r="F40" t="s">
-        <v>204</v>
+        <v>163</v>
       </c>
       <c r="G40" t="s">
-        <v>245</v>
+        <v>189</v>
       </c>
       <c r="H40" t="s">
-        <v>252</v>
+        <v>193</v>
       </c>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="1">
-        <v>57224</v>
+        <v>27615</v>
       </c>
       <c r="B41" t="s">
         <v>46</v>
       </c>
       <c r="C41" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="D41">
-        <v>49308648</v>
+        <v>13747831</v>
       </c>
       <c r="E41" t="s">
-        <v>143</v>
+        <v>105</v>
       </c>
       <c r="F41" t="s">
-        <v>225</v>
+        <v>163</v>
       </c>
       <c r="G41" t="s">
-        <v>251</v>
+        <v>187</v>
       </c>
       <c r="H41" t="s">
-        <v>252</v>
+        <v>193</v>
       </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="1">
-        <v>3249</v>
+        <v>27626</v>
       </c>
       <c r="B42" t="s">
         <v>47</v>
       </c>
       <c r="C42" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="D42">
-        <v>70000</v>
+        <v>311560000</v>
       </c>
       <c r="E42" t="s">
-        <v>144</v>
+        <v>114</v>
       </c>
       <c r="F42" t="s">
-        <v>205</v>
+        <v>163</v>
       </c>
       <c r="G42" t="s">
-        <v>245</v>
+        <v>191</v>
       </c>
       <c r="H42" t="s">
-        <v>252</v>
+        <v>193</v>
       </c>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="1">
-        <v>41947</v>
+        <v>27714</v>
       </c>
       <c r="B43" t="s">
         <v>48</v>
       </c>
       <c r="C43" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="D43">
-        <v>50000</v>
+        <v>150000</v>
       </c>
       <c r="E43" t="s">
-        <v>145</v>
+        <v>115</v>
       </c>
       <c r="F43" t="s">
-        <v>214</v>
+        <v>164</v>
       </c>
       <c r="G43" t="s">
-        <v>245</v>
+        <v>190</v>
       </c>
       <c r="H43" t="s">
-        <v>252</v>
+        <v>193</v>
       </c>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="1">
-        <v>23290</v>
+        <v>28348</v>
       </c>
       <c r="B44" t="s">
         <v>49</v>
       </c>
       <c r="C44" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="D44">
-        <v>60000</v>
+        <v>32570714</v>
       </c>
       <c r="E44" t="s">
-        <v>146</v>
+        <v>90</v>
       </c>
       <c r="F44" t="s">
-        <v>226</v>
+        <v>165</v>
       </c>
       <c r="G44" t="s">
-        <v>247</v>
+        <v>191</v>
       </c>
       <c r="H44" t="s">
-        <v>252</v>
+        <v>193</v>
       </c>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="1">
-        <v>21227</v>
+        <v>28371</v>
       </c>
       <c r="B45" t="s">
         <v>50</v>
       </c>
       <c r="C45" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="D45">
-        <v>70000</v>
+        <v>624771638</v>
       </c>
       <c r="E45" t="s">
-        <v>147</v>
+        <v>116</v>
       </c>
       <c r="F45" t="s">
-        <v>201</v>
+        <v>165</v>
       </c>
       <c r="G45" t="s">
-        <v>245</v>
+        <v>187</v>
       </c>
       <c r="H45" t="s">
-        <v>252</v>
+        <v>193</v>
       </c>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="1">
-        <v>53399</v>
+        <v>33005</v>
       </c>
       <c r="B46" t="s">
         <v>51</v>
       </c>
       <c r="C46" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="D46">
-        <v>70000</v>
+        <v>3411000</v>
       </c>
       <c r="E46" t="s">
-        <v>148</v>
+        <v>105</v>
       </c>
       <c r="F46" t="s">
-        <v>227</v>
+        <v>166</v>
       </c>
       <c r="G46" t="s">
-        <v>249</v>
+        <v>187</v>
       </c>
       <c r="H46" t="s">
-        <v>252</v>
+        <v>193</v>
       </c>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="1">
-        <v>28363</v>
+        <v>33148</v>
       </c>
       <c r="B47" t="s">
         <v>52</v>
       </c>
       <c r="C47" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="D47">
-        <v>500000</v>
+        <v>10008404</v>
       </c>
       <c r="E47" t="s">
-        <v>149</v>
+        <v>117</v>
       </c>
       <c r="F47" t="s">
-        <v>228</v>
+        <v>167</v>
       </c>
       <c r="G47" t="s">
-        <v>251</v>
+        <v>191</v>
       </c>
       <c r="H47" t="s">
-        <v>252</v>
+        <v>193</v>
       </c>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="1">
-        <v>25737</v>
+        <v>33161</v>
       </c>
       <c r="B48" t="s">
         <v>53</v>
       </c>
       <c r="C48" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="D48">
-        <v>90000</v>
+        <v>65191326</v>
       </c>
       <c r="E48" t="s">
-        <v>150</v>
+        <v>118</v>
       </c>
       <c r="F48" t="s">
-        <v>200</v>
+        <v>167</v>
       </c>
       <c r="G48" t="s">
-        <v>245</v>
+        <v>187</v>
       </c>
       <c r="H48" t="s">
-        <v>252</v>
+        <v>193</v>
       </c>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="1">
-        <v>35006</v>
+        <v>33218</v>
       </c>
       <c r="B49" t="s">
         <v>54</v>
       </c>
       <c r="C49" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="D49">
-        <v>50000</v>
+        <v>26818182</v>
       </c>
       <c r="E49" t="s">
-        <v>151</v>
+        <v>119</v>
       </c>
       <c r="F49" t="s">
-        <v>219</v>
+        <v>168</v>
       </c>
       <c r="G49" t="s">
-        <v>245</v>
+        <v>191</v>
       </c>
       <c r="H49" t="s">
-        <v>252</v>
+        <v>193</v>
       </c>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="1">
-        <v>28003</v>
+        <v>33743</v>
       </c>
       <c r="B50" t="s">
         <v>55</v>
       </c>
       <c r="C50" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="D50">
-        <v>30000</v>
+        <v>67182500</v>
       </c>
       <c r="E50" t="s">
-        <v>152</v>
+        <v>92</v>
       </c>
       <c r="F50" t="s">
-        <v>211</v>
+        <v>169</v>
       </c>
       <c r="G50" t="s">
-        <v>247</v>
+        <v>187</v>
       </c>
       <c r="H50" t="s">
-        <v>252</v>
+        <v>193</v>
       </c>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="1">
-        <v>17898</v>
+        <v>35475</v>
       </c>
       <c r="B51" t="s">
         <v>56</v>
       </c>
       <c r="C51" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="D51">
-        <v>50000</v>
+        <v>70000</v>
       </c>
       <c r="E51" t="s">
-        <v>153</v>
+        <v>120</v>
       </c>
       <c r="F51" t="s">
-        <v>204</v>
+        <v>170</v>
       </c>
       <c r="G51" t="s">
-        <v>245</v>
+        <v>189</v>
       </c>
       <c r="H51" t="s">
-        <v>252</v>
+        <v>193</v>
       </c>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="1">
-        <v>45599</v>
+        <v>37242</v>
       </c>
       <c r="B52" t="s">
         <v>57</v>
       </c>
       <c r="C52" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="D52">
-        <v>90000</v>
+        <v>22490000</v>
       </c>
       <c r="E52" t="s">
-        <v>154</v>
+        <v>108</v>
       </c>
       <c r="F52" t="s">
-        <v>210</v>
+        <v>171</v>
       </c>
       <c r="G52" t="s">
-        <v>250</v>
+        <v>187</v>
       </c>
       <c r="H52" t="s">
-        <v>252</v>
+        <v>193</v>
       </c>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="1">
-        <v>18001</v>
+        <v>37945</v>
       </c>
       <c r="B53" t="s">
         <v>58</v>
       </c>
       <c r="C53" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="D53">
-        <v>50000</v>
+        <v>19915452</v>
       </c>
       <c r="E53" t="s">
-        <v>155</v>
+        <v>121</v>
       </c>
       <c r="F53" t="s">
-        <v>204</v>
+        <v>172</v>
       </c>
       <c r="G53" t="s">
-        <v>245</v>
+        <v>187</v>
       </c>
       <c r="H53" t="s">
-        <v>252</v>
+        <v>193</v>
       </c>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="1">
-        <v>51978</v>
+        <v>37962</v>
       </c>
       <c r="B54" t="s">
         <v>59</v>
       </c>
       <c r="C54" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="D54">
-        <v>109091</v>
+        <v>101469344</v>
       </c>
       <c r="E54" t="s">
-        <v>156</v>
+        <v>118</v>
       </c>
       <c r="F54" t="s">
-        <v>229</v>
+        <v>172</v>
       </c>
       <c r="G54" t="s">
-        <v>247</v>
+        <v>187</v>
       </c>
       <c r="H54" t="s">
-        <v>252</v>
+        <v>193</v>
       </c>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="1">
-        <v>42327</v>
+        <v>38403</v>
       </c>
       <c r="B55" t="s">
         <v>60</v>
       </c>
       <c r="C55" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="D55">
-        <v>40000</v>
+        <v>10000000</v>
       </c>
       <c r="E55" t="s">
-        <v>157</v>
+        <v>92</v>
       </c>
       <c r="F55" t="s">
-        <v>230</v>
+        <v>173</v>
       </c>
       <c r="G55" t="s">
-        <v>247</v>
+        <v>189</v>
       </c>
       <c r="H55" t="s">
-        <v>252</v>
+        <v>193</v>
       </c>
     </row>
     <row r="56" spans="1:8">
       <c r="A56" s="1">
-        <v>16220</v>
+        <v>38648</v>
       </c>
       <c r="B56" t="s">
         <v>61</v>
       </c>
       <c r="C56" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="D56">
-        <v>50000</v>
+        <v>681819</v>
       </c>
       <c r="E56" t="s">
-        <v>158</v>
+        <v>122</v>
       </c>
       <c r="F56" t="s">
-        <v>204</v>
+        <v>174</v>
       </c>
       <c r="G56" t="s">
-        <v>245</v>
+        <v>187</v>
       </c>
       <c r="H56" t="s">
-        <v>252</v>
+        <v>193</v>
       </c>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="1">
-        <v>53874</v>
+        <v>40674</v>
       </c>
       <c r="B57" t="s">
         <v>62</v>
       </c>
       <c r="C57" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="D57">
-        <v>50000</v>
+        <v>140000</v>
       </c>
       <c r="E57" t="s">
-        <v>159</v>
+        <v>123</v>
       </c>
       <c r="F57" t="s">
-        <v>222</v>
+        <v>175</v>
       </c>
       <c r="G57" t="s">
-        <v>250</v>
+        <v>189</v>
       </c>
       <c r="H57" t="s">
-        <v>252</v>
+        <v>193</v>
       </c>
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="1">
-        <v>12479</v>
+        <v>42221</v>
       </c>
       <c r="B58" t="s">
         <v>63</v>
       </c>
       <c r="C58" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="D58">
-        <v>110000</v>
+        <v>100000</v>
       </c>
       <c r="E58" t="s">
-        <v>160</v>
+        <v>124</v>
       </c>
       <c r="F58" t="s">
-        <v>215</v>
+        <v>176</v>
       </c>
       <c r="G58" t="s">
-        <v>245</v>
+        <v>190</v>
       </c>
       <c r="H58" t="s">
-        <v>252</v>
+        <v>193</v>
       </c>
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="1">
-        <v>10737</v>
+        <v>42629</v>
       </c>
       <c r="B59" t="s">
         <v>64</v>
       </c>
       <c r="C59" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="D59">
-        <v>90000</v>
+        <v>6747818</v>
       </c>
       <c r="E59" t="s">
-        <v>161</v>
+        <v>125</v>
       </c>
       <c r="F59" t="s">
-        <v>215</v>
+        <v>177</v>
       </c>
       <c r="G59" t="s">
-        <v>245</v>
+        <v>189</v>
       </c>
       <c r="H59" t="s">
-        <v>252</v>
+        <v>193</v>
       </c>
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="1">
-        <v>42686</v>
+        <v>42817</v>
       </c>
       <c r="B60" t="s">
         <v>65</v>
       </c>
       <c r="C60" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="D60">
-        <v>230000</v>
+        <v>66973659</v>
       </c>
       <c r="E60" t="s">
-        <v>162</v>
+        <v>126</v>
       </c>
       <c r="F60" t="s">
-        <v>231</v>
+        <v>178</v>
       </c>
       <c r="G60" t="s">
-        <v>249</v>
+        <v>187</v>
       </c>
       <c r="H60" t="s">
-        <v>252</v>
+        <v>193</v>
       </c>
     </row>
     <row r="61" spans="1:8">
       <c r="A61" s="1">
-        <v>52555</v>
+        <v>42822</v>
       </c>
       <c r="B61" t="s">
         <v>66</v>
       </c>
       <c r="C61" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="D61">
-        <v>900000</v>
+        <v>74782569</v>
       </c>
       <c r="E61" t="s">
-        <v>163</v>
+        <v>84</v>
       </c>
       <c r="F61" t="s">
-        <v>232</v>
+        <v>178</v>
       </c>
       <c r="G61" t="s">
-        <v>245</v>
+        <v>187</v>
       </c>
       <c r="H61" t="s">
-        <v>252</v>
+        <v>193</v>
       </c>
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="1">
-        <v>21944</v>
+        <v>42826</v>
       </c>
       <c r="B62" t="s">
         <v>67</v>
       </c>
       <c r="C62" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="D62">
-        <v>140000</v>
+        <v>66166047</v>
       </c>
       <c r="E62" t="s">
-        <v>164</v>
+        <v>116</v>
       </c>
       <c r="F62" t="s">
-        <v>201</v>
+        <v>178</v>
       </c>
       <c r="G62" t="s">
-        <v>245</v>
+        <v>187</v>
       </c>
       <c r="H62" t="s">
-        <v>252</v>
+        <v>193</v>
       </c>
     </row>
     <row r="63" spans="1:8">
       <c r="A63" s="1">
-        <v>11303</v>
+        <v>43239</v>
       </c>
       <c r="B63" t="s">
         <v>68</v>
       </c>
       <c r="C63" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="D63">
-        <v>50000</v>
+        <v>2160000</v>
       </c>
       <c r="E63" t="s">
-        <v>165</v>
+        <v>127</v>
       </c>
       <c r="F63" t="s">
-        <v>215</v>
+        <v>179</v>
       </c>
       <c r="G63" t="s">
-        <v>245</v>
+        <v>188</v>
       </c>
       <c r="H63" t="s">
-        <v>252</v>
+        <v>193</v>
       </c>
     </row>
     <row r="64" spans="1:8">
       <c r="A64" s="1">
-        <v>51005</v>
+        <v>44268</v>
       </c>
       <c r="B64" t="s">
         <v>69</v>
       </c>
       <c r="C64" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="D64">
-        <v>50000</v>
+        <v>330000</v>
       </c>
       <c r="E64" t="s">
-        <v>166</v>
+        <v>128</v>
       </c>
       <c r="F64" t="s">
-        <v>233</v>
+        <v>180</v>
       </c>
       <c r="G64" t="s">
-        <v>250</v>
+        <v>192</v>
       </c>
       <c r="H64" t="s">
-        <v>252</v>
+        <v>193</v>
       </c>
     </row>
     <row r="65" spans="1:8">
       <c r="A65" s="1">
-        <v>11103</v>
+        <v>46874</v>
       </c>
       <c r="B65" t="s">
         <v>70</v>
       </c>
       <c r="C65" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="D65">
-        <v>80000</v>
+        <v>1400000</v>
       </c>
       <c r="E65" t="s">
-        <v>167</v>
+        <v>129</v>
       </c>
       <c r="F65" t="s">
-        <v>215</v>
+        <v>180</v>
       </c>
       <c r="G65" t="s">
-        <v>245</v>
+        <v>187</v>
       </c>
       <c r="H65" t="s">
-        <v>252</v>
+        <v>193</v>
       </c>
     </row>
     <row r="66" spans="1:8">
       <c r="A66" s="1">
-        <v>706</v>
+        <v>47597</v>
       </c>
       <c r="B66" t="s">
         <v>71</v>
       </c>
       <c r="C66" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="D66">
-        <v>70000</v>
+        <v>3722727</v>
       </c>
       <c r="E66" t="s">
-        <v>168</v>
+        <v>130</v>
       </c>
       <c r="F66" t="s">
-        <v>206</v>
+        <v>181</v>
       </c>
       <c r="G66" t="s">
-        <v>249</v>
+        <v>187</v>
       </c>
       <c r="H66" t="s">
-        <v>252</v>
+        <v>193</v>
       </c>
     </row>
     <row r="67" spans="1:8">
       <c r="A67" s="1">
-        <v>36687</v>
+        <v>47635</v>
       </c>
       <c r="B67" t="s">
         <v>72</v>
       </c>
       <c r="C67" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="D67">
-        <v>110000</v>
+        <v>273839618</v>
       </c>
       <c r="E67" t="s">
-        <v>169</v>
+        <v>131</v>
       </c>
       <c r="F67" t="s">
-        <v>219</v>
+        <v>181</v>
       </c>
       <c r="G67" t="s">
-        <v>245</v>
+        <v>187</v>
       </c>
       <c r="H67" t="s">
-        <v>252</v>
+        <v>193</v>
       </c>
     </row>
     <row r="68" spans="1:8">
       <c r="A68" s="1">
-        <v>57383</v>
+        <v>47647</v>
       </c>
       <c r="B68" t="s">
         <v>73</v>
       </c>
       <c r="C68" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="D68">
-        <v>545455</v>
+        <v>26132023</v>
       </c>
       <c r="E68" t="s">
-        <v>170</v>
+        <v>90</v>
       </c>
       <c r="F68" t="s">
-        <v>234</v>
+        <v>181</v>
       </c>
       <c r="G68" t="s">
-        <v>251</v>
+        <v>189</v>
       </c>
       <c r="H68" t="s">
-        <v>252</v>
+        <v>193</v>
       </c>
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="1">
-        <v>15240</v>
+        <v>47659</v>
       </c>
       <c r="B69" t="s">
         <v>74</v>
       </c>
       <c r="C69" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="D69">
-        <v>50000</v>
+        <v>255309963</v>
       </c>
       <c r="E69" t="s">
-        <v>171</v>
+        <v>118</v>
       </c>
       <c r="F69" t="s">
-        <v>204</v>
+        <v>181</v>
       </c>
       <c r="G69" t="s">
-        <v>245</v>
+        <v>187</v>
       </c>
       <c r="H69" t="s">
-        <v>252</v>
+        <v>193</v>
       </c>
     </row>
     <row r="70" spans="1:8">
       <c r="A70" s="1">
-        <v>56078</v>
+        <v>47988</v>
       </c>
       <c r="B70" t="s">
         <v>75</v>
       </c>
       <c r="C70" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="D70">
-        <v>50000</v>
+        <v>60000</v>
       </c>
       <c r="E70" t="s">
-        <v>172</v>
+        <v>132</v>
       </c>
       <c r="F70" t="s">
-        <v>222</v>
+        <v>182</v>
       </c>
       <c r="G70" t="s">
-        <v>250</v>
+        <v>189</v>
       </c>
       <c r="H70" t="s">
-        <v>252</v>
+        <v>193</v>
       </c>
     </row>
     <row r="71" spans="1:8">
       <c r="A71" s="1">
-        <v>54486</v>
+        <v>48252</v>
       </c>
       <c r="B71" t="s">
         <v>76</v>
       </c>
       <c r="C71" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="D71">
-        <v>50000</v>
+        <v>67136300</v>
       </c>
       <c r="E71" t="s">
-        <v>173</v>
+        <v>92</v>
       </c>
       <c r="F71" t="s">
-        <v>222</v>
+        <v>183</v>
       </c>
       <c r="G71" t="s">
-        <v>250</v>
+        <v>189</v>
       </c>
       <c r="H71" t="s">
-        <v>252</v>
+        <v>193</v>
       </c>
     </row>
     <row r="72" spans="1:8">
       <c r="A72" s="1">
-        <v>39863</v>
+        <v>49905</v>
       </c>
       <c r="B72" t="s">
         <v>77</v>
       </c>
       <c r="C72" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="D72">
-        <v>50000</v>
+        <v>110000</v>
       </c>
       <c r="E72" t="s">
-        <v>174</v>
+        <v>133</v>
       </c>
       <c r="F72" t="s">
-        <v>214</v>
+        <v>184</v>
       </c>
       <c r="G72" t="s">
-        <v>245</v>
+        <v>192</v>
       </c>
       <c r="H72" t="s">
-        <v>252</v>
+        <v>193</v>
       </c>
     </row>
     <row r="73" spans="1:8">
       <c r="A73" s="1">
-        <v>19100</v>
+        <v>51948</v>
       </c>
       <c r="B73" t="s">
         <v>78</v>
       </c>
       <c r="C73" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="D73">
-        <v>172727</v>
+        <v>50000</v>
       </c>
       <c r="E73" t="s">
-        <v>175</v>
+        <v>134</v>
       </c>
       <c r="F73" t="s">
-        <v>235</v>
+        <v>185</v>
       </c>
       <c r="G73" t="s">
-        <v>245</v>
+        <v>190</v>
       </c>
       <c r="H73" t="s">
-        <v>252</v>
+        <v>193</v>
       </c>
     </row>
     <row r="74" spans="1:8">
       <c r="A74" s="1">
-        <v>28981</v>
+        <v>52492</v>
       </c>
       <c r="B74" t="s">
         <v>79</v>
       </c>
       <c r="C74" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="D74">
-        <v>150000</v>
+        <v>9978780</v>
       </c>
       <c r="E74" t="s">
-        <v>176</v>
+        <v>117</v>
       </c>
       <c r="F74" t="s">
-        <v>236</v>
+        <v>186</v>
       </c>
       <c r="G74" t="s">
-        <v>246</v>
+        <v>189</v>
       </c>
       <c r="H74" t="s">
-        <v>252</v>
+        <v>193</v>
       </c>
     </row>
     <row r="75" spans="1:8">
       <c r="A75" s="1">
-        <v>35448</v>
+        <v>52504</v>
       </c>
       <c r="B75" t="s">
         <v>80</v>
       </c>
       <c r="C75" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="D75">
-        <v>140000</v>
+        <v>205166563</v>
       </c>
       <c r="E75" t="s">
-        <v>177</v>
+        <v>131</v>
       </c>
       <c r="F75" t="s">
-        <v>219</v>
+        <v>186</v>
       </c>
       <c r="G75" t="s">
-        <v>245</v>
+        <v>187</v>
       </c>
       <c r="H75" t="s">
-        <v>252</v>
+        <v>193</v>
       </c>
     </row>
     <row r="76" spans="1:8">
       <c r="A76" s="1">
-        <v>33593</v>
+        <v>52508</v>
       </c>
       <c r="B76" t="s">
         <v>81</v>
       </c>
       <c r="C76" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="D76">
-        <v>60000</v>
+        <v>577370127</v>
       </c>
       <c r="E76" t="s">
-        <v>178</v>
+        <v>118</v>
       </c>
       <c r="F76" t="s">
-        <v>237</v>
+        <v>186</v>
       </c>
       <c r="G76" t="s">
-        <v>245</v>
+        <v>187</v>
       </c>
       <c r="H76" t="s">
-        <v>252</v>
+        <v>193</v>
       </c>
     </row>
     <row r="77" spans="1:8">
       <c r="A77" s="1">
-        <v>4925</v>
+        <v>52509</v>
       </c>
       <c r="B77" t="s">
         <v>82</v>
       </c>
       <c r="C77" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="D77">
-        <v>60000</v>
+        <v>372795554</v>
       </c>
       <c r="E77" t="s">
-        <v>179</v>
+        <v>126</v>
       </c>
       <c r="F77" t="s">
-        <v>238</v>
+        <v>186</v>
       </c>
       <c r="G77" t="s">
-        <v>248</v>
+        <v>187</v>
       </c>
       <c r="H77" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
-      <c r="A78" s="1">
-        <v>6726</v>
-      </c>
-      <c r="B78" t="s">
-        <v>83</v>
-      </c>
-      <c r="C78" t="s">
-        <v>103</v>
-      </c>
-      <c r="D78">
-        <v>50000</v>
-      </c>
-      <c r="E78" t="s">
-        <v>180</v>
-      </c>
-      <c r="F78" t="s">
-        <v>207</v>
-      </c>
-      <c r="G78" t="s">
-        <v>245</v>
-      </c>
-      <c r="H78" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
-      <c r="A79" s="1">
-        <v>46135</v>
-      </c>
-      <c r="B79" t="s">
-        <v>84</v>
-      </c>
-      <c r="C79" t="s">
-        <v>103</v>
-      </c>
-      <c r="D79">
-        <v>70000</v>
-      </c>
-      <c r="E79" t="s">
-        <v>181</v>
-      </c>
-      <c r="F79" t="s">
-        <v>210</v>
-      </c>
-      <c r="G79" t="s">
-        <v>250</v>
-      </c>
-      <c r="H79" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
-      <c r="A80" s="1">
-        <v>22714</v>
-      </c>
-      <c r="B80" t="s">
-        <v>85</v>
-      </c>
-      <c r="C80" t="s">
-        <v>103</v>
-      </c>
-      <c r="D80">
-        <v>50000</v>
-      </c>
-      <c r="E80" t="s">
-        <v>182</v>
-      </c>
-      <c r="F80" t="s">
-        <v>201</v>
-      </c>
-      <c r="G80" t="s">
-        <v>245</v>
-      </c>
-      <c r="H80" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
-      <c r="A81" s="1">
-        <v>50093</v>
-      </c>
-      <c r="B81" t="s">
-        <v>86</v>
-      </c>
-      <c r="C81" t="s">
-        <v>103</v>
-      </c>
-      <c r="D81">
-        <v>60000</v>
-      </c>
-      <c r="E81" t="s">
-        <v>183</v>
-      </c>
-      <c r="F81" t="s">
-        <v>233</v>
-      </c>
-      <c r="G81" t="s">
-        <v>250</v>
-      </c>
-      <c r="H81" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
-      <c r="A82" s="1">
-        <v>55385</v>
-      </c>
-      <c r="B82" t="s">
-        <v>87</v>
-      </c>
-      <c r="C82" t="s">
-        <v>103</v>
-      </c>
-      <c r="D82">
-        <v>80000</v>
-      </c>
-      <c r="E82" t="s">
-        <v>184</v>
-      </c>
-      <c r="F82" t="s">
-        <v>222</v>
-      </c>
-      <c r="G82" t="s">
-        <v>250</v>
-      </c>
-      <c r="H82" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
-      <c r="A83" s="1">
-        <v>34545</v>
-      </c>
-      <c r="B83" t="s">
-        <v>88</v>
-      </c>
-      <c r="C83" t="s">
-        <v>103</v>
-      </c>
-      <c r="D83">
-        <v>50000</v>
-      </c>
-      <c r="E83" t="s">
-        <v>185</v>
-      </c>
-      <c r="F83" t="s">
-        <v>219</v>
-      </c>
-      <c r="G83" t="s">
-        <v>245</v>
-      </c>
-      <c r="H83" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
-      <c r="A84" s="1">
-        <v>48191</v>
-      </c>
-      <c r="B84" t="s">
-        <v>89</v>
-      </c>
-      <c r="C84" t="s">
-        <v>103</v>
-      </c>
-      <c r="D84">
-        <v>700000</v>
-      </c>
-      <c r="E84" t="s">
-        <v>186</v>
-      </c>
-      <c r="F84" t="s">
-        <v>239</v>
-      </c>
-      <c r="G84" t="s">
-        <v>251</v>
-      </c>
-      <c r="H84" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
-      <c r="A85" s="1">
-        <v>52035</v>
-      </c>
-      <c r="B85" t="s">
-        <v>90</v>
-      </c>
-      <c r="C85" t="s">
-        <v>103</v>
-      </c>
-      <c r="D85">
-        <v>50000</v>
-      </c>
-      <c r="E85" t="s">
-        <v>187</v>
-      </c>
-      <c r="F85" t="s">
-        <v>229</v>
-      </c>
-      <c r="G85" t="s">
-        <v>247</v>
-      </c>
-      <c r="H85" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
-      <c r="A86" s="1">
-        <v>20605</v>
-      </c>
-      <c r="B86" t="s">
-        <v>91</v>
-      </c>
-      <c r="C86" t="s">
-        <v>103</v>
-      </c>
-      <c r="D86">
-        <v>260000</v>
-      </c>
-      <c r="E86" t="s">
-        <v>188</v>
-      </c>
-      <c r="F86" t="s">
-        <v>201</v>
-      </c>
-      <c r="G86" t="s">
-        <v>245</v>
-      </c>
-      <c r="H86" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
-      <c r="A87" s="1">
-        <v>24497</v>
-      </c>
-      <c r="B87" t="s">
-        <v>92</v>
-      </c>
-      <c r="C87" t="s">
-        <v>103</v>
-      </c>
-      <c r="D87">
-        <v>727272</v>
-      </c>
-      <c r="E87" t="s">
-        <v>189</v>
-      </c>
-      <c r="F87" t="s">
-        <v>200</v>
-      </c>
-      <c r="G87" t="s">
-        <v>251</v>
-      </c>
-      <c r="H87" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
-      <c r="A88" s="1">
-        <v>5506</v>
-      </c>
-      <c r="B88" t="s">
-        <v>93</v>
-      </c>
-      <c r="C88" t="s">
-        <v>103</v>
-      </c>
-      <c r="D88">
-        <v>70000</v>
-      </c>
-      <c r="E88" t="s">
-        <v>190</v>
-      </c>
-      <c r="F88" t="s">
-        <v>240</v>
-      </c>
-      <c r="G88" t="s">
-        <v>249</v>
-      </c>
-      <c r="H88" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
-      <c r="A89" s="1">
-        <v>20096</v>
-      </c>
-      <c r="B89" t="s">
-        <v>94</v>
-      </c>
-      <c r="C89" t="s">
-        <v>103</v>
-      </c>
-      <c r="D89">
-        <v>160000</v>
-      </c>
-      <c r="E89" t="s">
-        <v>191</v>
-      </c>
-      <c r="F89" t="s">
-        <v>201</v>
-      </c>
-      <c r="G89" t="s">
-        <v>245</v>
-      </c>
-      <c r="H89" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
-      <c r="A90" s="1">
-        <v>29250</v>
-      </c>
-      <c r="B90" t="s">
-        <v>95</v>
-      </c>
-      <c r="C90" t="s">
-        <v>103</v>
-      </c>
-      <c r="D90">
-        <v>5000</v>
-      </c>
-      <c r="E90" t="s">
-        <v>192</v>
-      </c>
-      <c r="F90" t="s">
-        <v>241</v>
-      </c>
-      <c r="G90" t="s">
-        <v>249</v>
-      </c>
-      <c r="H90" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
-      <c r="A91" s="1">
-        <v>56584</v>
-      </c>
-      <c r="B91" t="s">
-        <v>96</v>
-      </c>
-      <c r="C91" t="s">
-        <v>103</v>
-      </c>
-      <c r="D91">
-        <v>50000</v>
-      </c>
-      <c r="E91" t="s">
-        <v>193</v>
-      </c>
-      <c r="F91" t="s">
-        <v>222</v>
-      </c>
-      <c r="G91" t="s">
-        <v>250</v>
-      </c>
-      <c r="H91" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
-      <c r="A92" s="1">
-        <v>4593</v>
-      </c>
-      <c r="B92" t="s">
-        <v>97</v>
-      </c>
-      <c r="C92" t="s">
-        <v>103</v>
-      </c>
-      <c r="D92">
-        <v>1860909</v>
-      </c>
-      <c r="E92" t="s">
-        <v>194</v>
-      </c>
-      <c r="F92" t="s">
-        <v>242</v>
-      </c>
-      <c r="G92" t="s">
-        <v>251</v>
-      </c>
-      <c r="H92" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
-      <c r="A93" s="1">
-        <v>53075</v>
-      </c>
-      <c r="B93" t="s">
-        <v>98</v>
-      </c>
-      <c r="C93" t="s">
-        <v>103</v>
-      </c>
-      <c r="D93">
-        <v>900000</v>
-      </c>
-      <c r="E93" t="s">
-        <v>195</v>
-      </c>
-      <c r="F93" t="s">
-        <v>243</v>
-      </c>
-      <c r="G93" t="s">
-        <v>251</v>
-      </c>
-      <c r="H93" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
-      <c r="A94" s="1">
-        <v>12752</v>
-      </c>
-      <c r="B94" t="s">
-        <v>99</v>
-      </c>
-      <c r="C94" t="s">
-        <v>103</v>
-      </c>
-      <c r="D94">
-        <v>50000</v>
-      </c>
-      <c r="E94" t="s">
-        <v>196</v>
-      </c>
-      <c r="F94" t="s">
-        <v>215</v>
-      </c>
-      <c r="G94" t="s">
-        <v>245</v>
-      </c>
-      <c r="H94" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
-      <c r="A95" s="1">
-        <v>7492</v>
-      </c>
-      <c r="B95" t="s">
-        <v>100</v>
-      </c>
-      <c r="C95" t="s">
-        <v>103</v>
-      </c>
-      <c r="D95">
-        <v>130000</v>
-      </c>
-      <c r="E95" t="s">
-        <v>197</v>
-      </c>
-      <c r="F95" t="s">
-        <v>207</v>
-      </c>
-      <c r="G95" t="s">
-        <v>245</v>
-      </c>
-      <c r="H95" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
-      <c r="A96" s="1">
-        <v>6666</v>
-      </c>
-      <c r="B96" t="s">
-        <v>101</v>
-      </c>
-      <c r="C96" t="s">
-        <v>103</v>
-      </c>
-      <c r="D96">
-        <v>70000</v>
-      </c>
-      <c r="E96" t="s">
-        <v>198</v>
-      </c>
-      <c r="F96" t="s">
-        <v>207</v>
-      </c>
-      <c r="G96" t="s">
-        <v>245</v>
-      </c>
-      <c r="H96" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
-      <c r="A97" s="1">
-        <v>47407</v>
-      </c>
-      <c r="B97" t="s">
-        <v>102</v>
-      </c>
-      <c r="C97" t="s">
-        <v>103</v>
-      </c>
-      <c r="D97">
-        <v>60000</v>
-      </c>
-      <c r="E97" t="s">
-        <v>199</v>
-      </c>
-      <c r="F97" t="s">
-        <v>244</v>
-      </c>
-      <c r="G97" t="s">
-        <v>247</v>
-      </c>
-      <c r="H97" t="s">
-        <v>252</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>

--- a/test_sample.xlsx
+++ b/test_sample.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R\accounting\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="test_sample" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -601,12 +606,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -614,8 +619,24 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -654,22 +675,39 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -711,7 +749,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -743,9 +781,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -777,6 +816,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -952,21 +992,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H77"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -982,59 +1034,67 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
+    <row r="2" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
         <v>53202</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D2">
+      <c r="C2" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2" s="5">
         <v>1072500366</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="G2" t="s">
-        <v>187</v>
-      </c>
-      <c r="H2" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
+      <c r="G2" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="I2" s="3" t="b">
+        <f>D2&gt;700000000</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
         <v>53203</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D3">
+      <c r="C3" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D3" s="5">
         <v>731265891</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="G3" t="s">
-        <v>187</v>
-      </c>
-      <c r="H3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="G3" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="I3" s="3" t="b">
+        <f t="shared" ref="I3:I66" si="0">D3&gt;700000000</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>434</v>
       </c>
@@ -1044,7 +1104,7 @@
       <c r="C4" t="s">
         <v>83</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="6">
         <v>700000</v>
       </c>
       <c r="E4" t="s">
@@ -1059,8 +1119,12 @@
       <c r="H4" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>727</v>
       </c>
@@ -1070,7 +1134,7 @@
       <c r="C5" t="s">
         <v>83</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="6">
         <v>70000</v>
       </c>
       <c r="E5" t="s">
@@ -1085,8 +1149,12 @@
       <c r="H5" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>2670</v>
       </c>
@@ -1096,7 +1164,7 @@
       <c r="C6" t="s">
         <v>83</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="6">
         <v>100000</v>
       </c>
       <c r="E6" t="s">
@@ -1111,8 +1179,12 @@
       <c r="H6" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>3993</v>
       </c>
@@ -1122,7 +1194,7 @@
       <c r="C7" t="s">
         <v>83</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="6">
         <v>300000</v>
       </c>
       <c r="E7" t="s">
@@ -1137,8 +1209,12 @@
       <c r="H7" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>4610</v>
       </c>
@@ -1148,7 +1224,7 @@
       <c r="C8" t="s">
         <v>83</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="6">
         <v>21012681</v>
       </c>
       <c r="E8" t="s">
@@ -1163,8 +1239,12 @@
       <c r="H8" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I8" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>4649</v>
       </c>
@@ -1174,7 +1254,7 @@
       <c r="C9" t="s">
         <v>83</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="6">
         <v>21229950</v>
       </c>
       <c r="E9" t="s">
@@ -1189,8 +1269,12 @@
       <c r="H9" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="I9" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>5101</v>
       </c>
@@ -1200,7 +1284,7 @@
       <c r="C10" t="s">
         <v>83</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="6">
         <v>580000</v>
       </c>
       <c r="E10" t="s">
@@ -1215,8 +1299,12 @@
       <c r="H10" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="I10" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>5277</v>
       </c>
@@ -1226,7 +1314,7 @@
       <c r="C11" t="s">
         <v>83</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="6">
         <v>175683200</v>
       </c>
       <c r="E11" t="s">
@@ -1241,8 +1329,12 @@
       <c r="H11" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="I11" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>5281</v>
       </c>
@@ -1252,7 +1344,7 @@
       <c r="C12" t="s">
         <v>83</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="6">
         <v>32438714</v>
       </c>
       <c r="E12" t="s">
@@ -1267,8 +1359,12 @@
       <c r="H12" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="I12" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>6849</v>
       </c>
@@ -1278,7 +1374,7 @@
       <c r="C13" t="s">
         <v>83</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="6">
         <v>90000</v>
       </c>
       <c r="E13" t="s">
@@ -1293,8 +1389,12 @@
       <c r="H13" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="I13" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>8690</v>
       </c>
@@ -1304,7 +1404,7 @@
       <c r="C14" t="s">
         <v>83</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="6">
         <v>11719091</v>
       </c>
       <c r="E14" t="s">
@@ -1319,8 +1419,12 @@
       <c r="H14" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="I14" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>9326</v>
       </c>
@@ -1330,7 +1434,7 @@
       <c r="C15" t="s">
         <v>83</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="6">
         <v>18881500</v>
       </c>
       <c r="E15" t="s">
@@ -1345,8 +1449,12 @@
       <c r="H15" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="I15" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>9359</v>
       </c>
@@ -1356,7 +1464,7 @@
       <c r="C16" t="s">
         <v>83</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="6">
         <v>12285000</v>
       </c>
       <c r="E16" t="s">
@@ -1371,8 +1479,12 @@
       <c r="H16" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="17" spans="1:8">
+      <c r="I16" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>9931</v>
       </c>
@@ -1382,7 +1494,7 @@
       <c r="C17" t="s">
         <v>83</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="6">
         <v>67067000</v>
       </c>
       <c r="E17" t="s">
@@ -1397,8 +1509,12 @@
       <c r="H17" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="I17" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>10276</v>
       </c>
@@ -1408,7 +1524,7 @@
       <c r="C18" t="s">
         <v>83</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="6">
         <v>750000</v>
       </c>
       <c r="E18" t="s">
@@ -1423,8 +1539,12 @@
       <c r="H18" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="I18" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>12312</v>
       </c>
@@ -1434,7 +1554,7 @@
       <c r="C19" t="s">
         <v>83</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="6">
         <v>320000</v>
       </c>
       <c r="E19" t="s">
@@ -1449,8 +1569,12 @@
       <c r="H19" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="I19" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>13780</v>
       </c>
@@ -1460,7 +1584,7 @@
       <c r="C20" t="s">
         <v>83</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="6">
         <v>80000</v>
       </c>
       <c r="E20" t="s">
@@ -1475,8 +1599,12 @@
       <c r="H20" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="21" spans="1:8">
+      <c r="I20" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>14060</v>
       </c>
@@ -1486,7 +1614,7 @@
       <c r="C21" t="s">
         <v>83</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="6">
         <v>18096254</v>
       </c>
       <c r="E21" t="s">
@@ -1501,8 +1629,12 @@
       <c r="H21" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="22" spans="1:8">
+      <c r="I21" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>14118</v>
       </c>
@@ -1512,7 +1644,7 @@
       <c r="C22" t="s">
         <v>83</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="6">
         <v>60978376</v>
       </c>
       <c r="E22" t="s">
@@ -1527,8 +1659,12 @@
       <c r="H22" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="23" spans="1:8">
+      <c r="I22" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>14128</v>
       </c>
@@ -1538,7 +1674,7 @@
       <c r="C23" t="s">
         <v>83</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="6">
         <v>67985098</v>
       </c>
       <c r="E23" t="s">
@@ -1553,8 +1689,12 @@
       <c r="H23" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="24" spans="1:8">
+      <c r="I23" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>14521</v>
       </c>
@@ -1564,7 +1704,7 @@
       <c r="C24" t="s">
         <v>83</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="6">
         <v>112901880</v>
       </c>
       <c r="E24" t="s">
@@ -1579,8 +1719,12 @@
       <c r="H24" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="25" spans="1:8">
+      <c r="I24" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>14643</v>
       </c>
@@ -1590,7 +1734,7 @@
       <c r="C25" t="s">
         <v>83</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="6">
         <v>66658900</v>
       </c>
       <c r="E25" t="s">
@@ -1605,8 +1749,12 @@
       <c r="H25" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="26" spans="1:8">
+      <c r="I25" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>14871</v>
       </c>
@@ -1616,7 +1764,7 @@
       <c r="C26" t="s">
         <v>83</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="6">
         <v>70000</v>
       </c>
       <c r="E26" t="s">
@@ -1631,8 +1779,12 @@
       <c r="H26" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="27" spans="1:8">
+      <c r="I26" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>15188</v>
       </c>
@@ -1642,7 +1794,7 @@
       <c r="C27" t="s">
         <v>83</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="6">
         <v>13590595</v>
       </c>
       <c r="E27" t="s">
@@ -1657,8 +1809,12 @@
       <c r="H27" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="I27" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>17841</v>
       </c>
@@ -1668,7 +1824,7 @@
       <c r="C28" t="s">
         <v>83</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="6">
         <v>50000</v>
       </c>
       <c r="E28" t="s">
@@ -1683,8 +1839,12 @@
       <c r="H28" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="29" spans="1:8">
+      <c r="I28" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>18691</v>
       </c>
@@ -1694,7 +1854,7 @@
       <c r="C29" t="s">
         <v>83</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="6">
         <v>7545527</v>
       </c>
       <c r="E29" t="s">
@@ -1709,8 +1869,12 @@
       <c r="H29" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="30" spans="1:8">
+      <c r="I29" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>18810</v>
       </c>
@@ -1720,7 +1884,7 @@
       <c r="C30" t="s">
         <v>83</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="6">
         <v>50022956</v>
       </c>
       <c r="E30" t="s">
@@ -1735,8 +1899,12 @@
       <c r="H30" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="31" spans="1:8">
+      <c r="I30" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>19234</v>
       </c>
@@ -1746,7 +1914,7 @@
       <c r="C31" t="s">
         <v>83</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="6">
         <v>71001505</v>
       </c>
       <c r="E31" t="s">
@@ -1761,8 +1929,12 @@
       <c r="H31" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="32" spans="1:8">
+      <c r="I31" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>19362</v>
       </c>
@@ -1772,7 +1944,7 @@
       <c r="C32" t="s">
         <v>83</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="6">
         <v>73866100</v>
       </c>
       <c r="E32" t="s">
@@ -1787,8 +1959,12 @@
       <c r="H32" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="33" spans="1:8">
+      <c r="I32" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>19765</v>
       </c>
@@ -1798,7 +1974,7 @@
       <c r="C33" t="s">
         <v>83</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="6">
         <v>3238500</v>
       </c>
       <c r="E33" t="s">
@@ -1813,8 +1989,12 @@
       <c r="H33" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="34" spans="1:8">
+      <c r="I33" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>22393</v>
       </c>
@@ -1824,7 +2004,7 @@
       <c r="C34" t="s">
         <v>83</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="6">
         <v>140000</v>
       </c>
       <c r="E34" t="s">
@@ -1839,8 +2019,12 @@
       <c r="H34" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="35" spans="1:8">
+      <c r="I34" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>23439</v>
       </c>
@@ -1850,7 +2034,7 @@
       <c r="C35" t="s">
         <v>83</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="6">
         <v>50000000</v>
       </c>
       <c r="E35" t="s">
@@ -1865,8 +2049,12 @@
       <c r="H35" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="36" spans="1:8">
+      <c r="I35" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>23545</v>
       </c>
@@ -1876,7 +2064,7 @@
       <c r="C36" t="s">
         <v>83</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="6">
         <v>181167859</v>
       </c>
       <c r="E36" t="s">
@@ -1891,8 +2079,12 @@
       <c r="H36" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="37" spans="1:8">
+      <c r="I36" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>23555</v>
       </c>
@@ -1902,7 +2094,7 @@
       <c r="C37" t="s">
         <v>83</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="6">
         <v>71645988</v>
       </c>
       <c r="E37" t="s">
@@ -1917,8 +2109,12 @@
       <c r="H37" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="38" spans="1:8">
+      <c r="I37" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>23617</v>
       </c>
@@ -1928,7 +2124,7 @@
       <c r="C38" t="s">
         <v>83</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="6">
         <v>3600000</v>
       </c>
       <c r="E38" t="s">
@@ -1943,8 +2139,12 @@
       <c r="H38" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="39" spans="1:8">
+      <c r="I38" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>24106</v>
       </c>
@@ -1954,7 +2154,7 @@
       <c r="C39" t="s">
         <v>83</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="6">
         <v>545455</v>
       </c>
       <c r="E39" t="s">
@@ -1969,8 +2169,12 @@
       <c r="H39" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="40" spans="1:8">
+      <c r="I39" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>25092</v>
       </c>
@@ -1980,7 +2184,7 @@
       <c r="C40" t="s">
         <v>83</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="6">
         <v>70000</v>
       </c>
       <c r="E40" t="s">
@@ -1995,8 +2199,12 @@
       <c r="H40" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="41" spans="1:8">
+      <c r="I40" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>27615</v>
       </c>
@@ -2006,7 +2214,7 @@
       <c r="C41" t="s">
         <v>83</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="6">
         <v>13747831</v>
       </c>
       <c r="E41" t="s">
@@ -2021,8 +2229,12 @@
       <c r="H41" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="42" spans="1:8">
+      <c r="I41" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>27626</v>
       </c>
@@ -2032,7 +2244,7 @@
       <c r="C42" t="s">
         <v>83</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="6">
         <v>311560000</v>
       </c>
       <c r="E42" t="s">
@@ -2047,8 +2259,12 @@
       <c r="H42" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="43" spans="1:8">
+      <c r="I42" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>27714</v>
       </c>
@@ -2058,7 +2274,7 @@
       <c r="C43" t="s">
         <v>83</v>
       </c>
-      <c r="D43">
+      <c r="D43" s="6">
         <v>150000</v>
       </c>
       <c r="E43" t="s">
@@ -2073,8 +2289,12 @@
       <c r="H43" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="44" spans="1:8">
+      <c r="I43" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>28348</v>
       </c>
@@ -2084,7 +2304,7 @@
       <c r="C44" t="s">
         <v>83</v>
       </c>
-      <c r="D44">
+      <c r="D44" s="6">
         <v>32570714</v>
       </c>
       <c r="E44" t="s">
@@ -2099,8 +2319,12 @@
       <c r="H44" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="45" spans="1:8">
+      <c r="I44" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>28371</v>
       </c>
@@ -2110,7 +2334,7 @@
       <c r="C45" t="s">
         <v>83</v>
       </c>
-      <c r="D45">
+      <c r="D45" s="6">
         <v>624771638</v>
       </c>
       <c r="E45" t="s">
@@ -2125,8 +2349,12 @@
       <c r="H45" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="46" spans="1:8">
+      <c r="I45" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>33005</v>
       </c>
@@ -2136,7 +2364,7 @@
       <c r="C46" t="s">
         <v>83</v>
       </c>
-      <c r="D46">
+      <c r="D46" s="6">
         <v>3411000</v>
       </c>
       <c r="E46" t="s">
@@ -2151,8 +2379,12 @@
       <c r="H46" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="47" spans="1:8">
+      <c r="I46" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>33148</v>
       </c>
@@ -2162,7 +2394,7 @@
       <c r="C47" t="s">
         <v>83</v>
       </c>
-      <c r="D47">
+      <c r="D47" s="6">
         <v>10008404</v>
       </c>
       <c r="E47" t="s">
@@ -2177,8 +2409,12 @@
       <c r="H47" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="48" spans="1:8">
+      <c r="I47" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>33161</v>
       </c>
@@ -2188,7 +2424,7 @@
       <c r="C48" t="s">
         <v>83</v>
       </c>
-      <c r="D48">
+      <c r="D48" s="6">
         <v>65191326</v>
       </c>
       <c r="E48" t="s">
@@ -2203,8 +2439,12 @@
       <c r="H48" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="49" spans="1:8">
+      <c r="I48" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>33218</v>
       </c>
@@ -2214,7 +2454,7 @@
       <c r="C49" t="s">
         <v>83</v>
       </c>
-      <c r="D49">
+      <c r="D49" s="6">
         <v>26818182</v>
       </c>
       <c r="E49" t="s">
@@ -2229,8 +2469,12 @@
       <c r="H49" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="50" spans="1:8">
+      <c r="I49" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>33743</v>
       </c>
@@ -2240,7 +2484,7 @@
       <c r="C50" t="s">
         <v>83</v>
       </c>
-      <c r="D50">
+      <c r="D50" s="6">
         <v>67182500</v>
       </c>
       <c r="E50" t="s">
@@ -2255,8 +2499,12 @@
       <c r="H50" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="51" spans="1:8">
+      <c r="I50" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>35475</v>
       </c>
@@ -2266,7 +2514,7 @@
       <c r="C51" t="s">
         <v>83</v>
       </c>
-      <c r="D51">
+      <c r="D51" s="6">
         <v>70000</v>
       </c>
       <c r="E51" t="s">
@@ -2281,8 +2529,12 @@
       <c r="H51" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="52" spans="1:8">
+      <c r="I51" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>37242</v>
       </c>
@@ -2292,7 +2544,7 @@
       <c r="C52" t="s">
         <v>83</v>
       </c>
-      <c r="D52">
+      <c r="D52" s="6">
         <v>22490000</v>
       </c>
       <c r="E52" t="s">
@@ -2307,8 +2559,12 @@
       <c r="H52" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="53" spans="1:8">
+      <c r="I52" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>37945</v>
       </c>
@@ -2318,7 +2574,7 @@
       <c r="C53" t="s">
         <v>83</v>
       </c>
-      <c r="D53">
+      <c r="D53" s="6">
         <v>19915452</v>
       </c>
       <c r="E53" t="s">
@@ -2333,8 +2589,12 @@
       <c r="H53" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="54" spans="1:8">
+      <c r="I53" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>37962</v>
       </c>
@@ -2344,7 +2604,7 @@
       <c r="C54" t="s">
         <v>83</v>
       </c>
-      <c r="D54">
+      <c r="D54" s="6">
         <v>101469344</v>
       </c>
       <c r="E54" t="s">
@@ -2359,8 +2619,12 @@
       <c r="H54" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="55" spans="1:8">
+      <c r="I54" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>38403</v>
       </c>
@@ -2370,7 +2634,7 @@
       <c r="C55" t="s">
         <v>83</v>
       </c>
-      <c r="D55">
+      <c r="D55" s="6">
         <v>10000000</v>
       </c>
       <c r="E55" t="s">
@@ -2385,8 +2649,12 @@
       <c r="H55" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="56" spans="1:8">
+      <c r="I55" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>38648</v>
       </c>
@@ -2396,7 +2664,7 @@
       <c r="C56" t="s">
         <v>83</v>
       </c>
-      <c r="D56">
+      <c r="D56" s="6">
         <v>681819</v>
       </c>
       <c r="E56" t="s">
@@ -2411,8 +2679,12 @@
       <c r="H56" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="57" spans="1:8">
+      <c r="I56" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>40674</v>
       </c>
@@ -2422,7 +2694,7 @@
       <c r="C57" t="s">
         <v>83</v>
       </c>
-      <c r="D57">
+      <c r="D57" s="6">
         <v>140000</v>
       </c>
       <c r="E57" t="s">
@@ -2437,8 +2709,12 @@
       <c r="H57" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="58" spans="1:8">
+      <c r="I57" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>42221</v>
       </c>
@@ -2448,7 +2724,7 @@
       <c r="C58" t="s">
         <v>83</v>
       </c>
-      <c r="D58">
+      <c r="D58" s="6">
         <v>100000</v>
       </c>
       <c r="E58" t="s">
@@ -2463,8 +2739,12 @@
       <c r="H58" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="59" spans="1:8">
+      <c r="I58" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>42629</v>
       </c>
@@ -2474,7 +2754,7 @@
       <c r="C59" t="s">
         <v>83</v>
       </c>
-      <c r="D59">
+      <c r="D59" s="6">
         <v>6747818</v>
       </c>
       <c r="E59" t="s">
@@ -2489,8 +2769,12 @@
       <c r="H59" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="60" spans="1:8">
+      <c r="I59" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>42817</v>
       </c>
@@ -2500,7 +2784,7 @@
       <c r="C60" t="s">
         <v>83</v>
       </c>
-      <c r="D60">
+      <c r="D60" s="6">
         <v>66973659</v>
       </c>
       <c r="E60" t="s">
@@ -2515,8 +2799,12 @@
       <c r="H60" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="61" spans="1:8">
+      <c r="I60" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>42822</v>
       </c>
@@ -2526,7 +2814,7 @@
       <c r="C61" t="s">
         <v>83</v>
       </c>
-      <c r="D61">
+      <c r="D61" s="6">
         <v>74782569</v>
       </c>
       <c r="E61" t="s">
@@ -2541,8 +2829,12 @@
       <c r="H61" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="62" spans="1:8">
+      <c r="I61" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>42826</v>
       </c>
@@ -2552,7 +2844,7 @@
       <c r="C62" t="s">
         <v>83</v>
       </c>
-      <c r="D62">
+      <c r="D62" s="6">
         <v>66166047</v>
       </c>
       <c r="E62" t="s">
@@ -2567,8 +2859,12 @@
       <c r="H62" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="63" spans="1:8">
+      <c r="I62" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>43239</v>
       </c>
@@ -2578,7 +2874,7 @@
       <c r="C63" t="s">
         <v>83</v>
       </c>
-      <c r="D63">
+      <c r="D63" s="6">
         <v>2160000</v>
       </c>
       <c r="E63" t="s">
@@ -2593,8 +2889,12 @@
       <c r="H63" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="64" spans="1:8">
+      <c r="I63" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>44268</v>
       </c>
@@ -2604,7 +2904,7 @@
       <c r="C64" t="s">
         <v>83</v>
       </c>
-      <c r="D64">
+      <c r="D64" s="6">
         <v>330000</v>
       </c>
       <c r="E64" t="s">
@@ -2619,8 +2919,12 @@
       <c r="H64" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="65" spans="1:8">
+      <c r="I64" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>46874</v>
       </c>
@@ -2630,7 +2934,7 @@
       <c r="C65" t="s">
         <v>83</v>
       </c>
-      <c r="D65">
+      <c r="D65" s="6">
         <v>1400000</v>
       </c>
       <c r="E65" t="s">
@@ -2645,8 +2949,12 @@
       <c r="H65" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="66" spans="1:8">
+      <c r="I65" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>47597</v>
       </c>
@@ -2656,7 +2964,7 @@
       <c r="C66" t="s">
         <v>83</v>
       </c>
-      <c r="D66">
+      <c r="D66" s="6">
         <v>3722727</v>
       </c>
       <c r="E66" t="s">
@@ -2671,8 +2979,12 @@
       <c r="H66" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="67" spans="1:8">
+      <c r="I66" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>47635</v>
       </c>
@@ -2682,7 +2994,7 @@
       <c r="C67" t="s">
         <v>83</v>
       </c>
-      <c r="D67">
+      <c r="D67" s="6">
         <v>273839618</v>
       </c>
       <c r="E67" t="s">
@@ -2697,8 +3009,12 @@
       <c r="H67" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="68" spans="1:8">
+      <c r="I67" t="b">
+        <f t="shared" ref="I67:I77" si="1">D67&gt;700000000</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>47647</v>
       </c>
@@ -2708,7 +3024,7 @@
       <c r="C68" t="s">
         <v>83</v>
       </c>
-      <c r="D68">
+      <c r="D68" s="6">
         <v>26132023</v>
       </c>
       <c r="E68" t="s">
@@ -2723,8 +3039,12 @@
       <c r="H68" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="69" spans="1:8">
+      <c r="I68" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>47659</v>
       </c>
@@ -2734,7 +3054,7 @@
       <c r="C69" t="s">
         <v>83</v>
       </c>
-      <c r="D69">
+      <c r="D69" s="6">
         <v>255309963</v>
       </c>
       <c r="E69" t="s">
@@ -2749,8 +3069,12 @@
       <c r="H69" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="70" spans="1:8">
+      <c r="I69" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>47988</v>
       </c>
@@ -2760,7 +3084,7 @@
       <c r="C70" t="s">
         <v>83</v>
       </c>
-      <c r="D70">
+      <c r="D70" s="6">
         <v>60000</v>
       </c>
       <c r="E70" t="s">
@@ -2775,8 +3099,12 @@
       <c r="H70" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="71" spans="1:8">
+      <c r="I70" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>48252</v>
       </c>
@@ -2786,7 +3114,7 @@
       <c r="C71" t="s">
         <v>83</v>
       </c>
-      <c r="D71">
+      <c r="D71" s="6">
         <v>67136300</v>
       </c>
       <c r="E71" t="s">
@@ -2801,8 +3129,12 @@
       <c r="H71" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="72" spans="1:8">
+      <c r="I71" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>49905</v>
       </c>
@@ -2812,7 +3144,7 @@
       <c r="C72" t="s">
         <v>83</v>
       </c>
-      <c r="D72">
+      <c r="D72" s="6">
         <v>110000</v>
       </c>
       <c r="E72" t="s">
@@ -2827,8 +3159,12 @@
       <c r="H72" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="73" spans="1:8">
+      <c r="I72" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>51948</v>
       </c>
@@ -2838,7 +3174,7 @@
       <c r="C73" t="s">
         <v>83</v>
       </c>
-      <c r="D73">
+      <c r="D73" s="6">
         <v>50000</v>
       </c>
       <c r="E73" t="s">
@@ -2853,8 +3189,12 @@
       <c r="H73" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="74" spans="1:8">
+      <c r="I73" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>52492</v>
       </c>
@@ -2864,7 +3204,7 @@
       <c r="C74" t="s">
         <v>83</v>
       </c>
-      <c r="D74">
+      <c r="D74" s="6">
         <v>9978780</v>
       </c>
       <c r="E74" t="s">
@@ -2879,8 +3219,12 @@
       <c r="H74" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="75" spans="1:8">
+      <c r="I74" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>52504</v>
       </c>
@@ -2890,7 +3234,7 @@
       <c r="C75" t="s">
         <v>83</v>
       </c>
-      <c r="D75">
+      <c r="D75" s="6">
         <v>205166563</v>
       </c>
       <c r="E75" t="s">
@@ -2905,8 +3249,12 @@
       <c r="H75" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="76" spans="1:8">
+      <c r="I75" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>52508</v>
       </c>
@@ -2916,7 +3264,7 @@
       <c r="C76" t="s">
         <v>83</v>
       </c>
-      <c r="D76">
+      <c r="D76" s="6">
         <v>577370127</v>
       </c>
       <c r="E76" t="s">
@@ -2931,8 +3279,12 @@
       <c r="H76" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="77" spans="1:8">
+      <c r="I76" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>52509</v>
       </c>
@@ -2942,7 +3294,7 @@
       <c r="C77" t="s">
         <v>83</v>
       </c>
-      <c r="D77">
+      <c r="D77" s="6">
         <v>372795554</v>
       </c>
       <c r="E77" t="s">
@@ -2957,8 +3309,14 @@
       <c r="H77" t="s">
         <v>193</v>
       </c>
+      <c r="I77" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/test_sample.xlsx
+++ b/test_sample.xlsx
@@ -22,7 +22,7 @@
     <t>ACCT_NM</t>
   </si>
   <si>
-    <t>amount</t>
+    <t>금액</t>
   </si>
   <si>
     <t>거래처[코드]</t>
